--- a/_CLUSTER/groups_time_area/1_groups_area_time.xlsx
+++ b/_CLUSTER/groups_time_area/1_groups_area_time.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_CLUSTER\groups_time_area\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C3C24D-1961-4CC7-B32A-9C9972327089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4715B80-E79A-41DF-A4D8-6E091B22CCDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BCF02780-D300-43E8-921C-29E8CAC5991E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{BCF02780-D300-43E8-921C-29E8CAC5991E}"/>
   </bookViews>
   <sheets>
     <sheet name="3_groups" sheetId="1" r:id="rId1"/>
     <sheet name="4_groups" sheetId="3" r:id="rId2"/>
+    <sheet name="6_groups" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="50">
   <si>
     <t>Area1</t>
   </si>
@@ -167,12 +168,30 @@
   <si>
     <t>Area5_total</t>
   </si>
+  <si>
+    <t>area3_total</t>
+  </si>
+  <si>
+    <t>Area1_tot</t>
+  </si>
+  <si>
+    <t>Area3_tot</t>
+  </si>
+  <si>
+    <t>Area2_tot</t>
+  </si>
+  <si>
+    <t>Area4_tot</t>
+  </si>
+  <si>
+    <t>Area5_tot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +218,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,8 +237,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -237,35 +279,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -582,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5AACF4-39EA-4D0A-ACCC-8AAAEB1F46DD}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:D60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C56" activeCellId="36" sqref="C2 G2 K2 O2 S2 W2 S12 O12 K12 G12 C12 C21 G21 K21 O21 S21 S30 O30 K30 G30 C30 C39 G39 K39 O39 C48 G48 K48 O48 S48 W48 W56 S56 O56 K56 G56 C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,63 +688,63 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="G2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="O2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="S2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W2" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" s="5" t="s">
+      <c r="W2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>0</v>
       </c>
       <c r="C3">
@@ -672,7 +754,7 @@
         <f>C3/$C$6*100</f>
         <v>46.055437100213219</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>0</v>
       </c>
       <c r="G3">
@@ -682,7 +764,7 @@
         <f>G3/$G$6*100</f>
         <v>21.476510067114095</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>0</v>
       </c>
       <c r="K3">
@@ -692,7 +774,7 @@
         <f>K3/$K$6*100</f>
         <v>31.746031746031743</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="4">
         <v>1</v>
       </c>
       <c r="O3">
@@ -701,7 +783,7 @@
       <c r="P3">
         <v>33</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>0</v>
       </c>
       <c r="S3">
@@ -711,7 +793,7 @@
         <f>S3/$S$6*100</f>
         <v>35.087719298245609</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="7">
         <v>0</v>
       </c>
       <c r="W3">
@@ -724,7 +806,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4">
@@ -734,7 +816,7 @@
         <f t="shared" ref="D4:D6" si="0">C4/$C$6*100</f>
         <v>37.953091684434966</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4">
@@ -744,7 +826,7 @@
         <f t="shared" ref="H4:H6" si="1">G4/$G$6*100</f>
         <v>51.006711409395976</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>1</v>
       </c>
       <c r="K4">
@@ -754,7 +836,7 @@
         <f t="shared" ref="L4:L6" si="2">K4/$K$6*100</f>
         <v>47.142857142857139</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="4">
         <v>2</v>
       </c>
       <c r="O4">
@@ -763,7 +845,7 @@
       <c r="P4">
         <v>66</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>1</v>
       </c>
       <c r="S4">
@@ -773,7 +855,7 @@
         <f t="shared" ref="T4:T6" si="3">S4/$S$6*100</f>
         <v>47.368421052631575</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="7">
         <v>1</v>
       </c>
       <c r="W4">
@@ -786,7 +868,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5">
@@ -796,7 +878,7 @@
         <f t="shared" si="0"/>
         <v>15.991471215351813</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>2</v>
       </c>
       <c r="G5">
@@ -806,7 +888,7 @@
         <f t="shared" si="1"/>
         <v>27.516778523489933</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>2</v>
       </c>
       <c r="K5">
@@ -819,7 +901,7 @@
       <c r="O5">
         <v>3</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>2</v>
       </c>
       <c r="S5">
@@ -829,7 +911,7 @@
         <f t="shared" si="3"/>
         <v>17.543859649122805</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="7">
         <v>2</v>
       </c>
       <c r="W5">
@@ -842,7 +924,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <f>SUM(C3:C5)</f>
         <v>469</v>
       </c>
@@ -850,7 +932,7 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <f>SUM(G3:G5)</f>
         <v>298</v>
       </c>
@@ -858,7 +940,7 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="1">
         <f>SUM(K3:K5)</f>
         <v>630</v>
       </c>
@@ -866,7 +948,7 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="1">
         <f>SUM(S3:S5)</f>
         <v>57</v>
       </c>
@@ -883,61 +965,61 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="C12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="G12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="K12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" t="s">
-        <v>7</v>
-      </c>
-      <c r="R12" t="s">
-        <v>8</v>
-      </c>
-      <c r="S12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T12" s="5" t="s">
+      <c r="O12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="8">
+      <c r="B13" s="5">
         <v>2</v>
       </c>
       <c r="C13">
@@ -946,7 +1028,7 @@
       <c r="D13">
         <v>100</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="5">
         <v>0</v>
       </c>
       <c r="G13">
@@ -956,7 +1038,7 @@
         <f>G13/$G$16*100</f>
         <v>28.571428571428569</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="5">
         <v>0</v>
       </c>
       <c r="K13">
@@ -966,7 +1048,7 @@
         <f>K13/$K$16*100</f>
         <v>43.216783216783213</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="5">
         <v>0</v>
       </c>
       <c r="O13">
@@ -976,7 +1058,7 @@
         <f>O13/$O$16*100</f>
         <v>43.492063492063494</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="7">
         <v>0</v>
       </c>
       <c r="S13">
@@ -992,7 +1074,7 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="5">
         <v>1</v>
       </c>
       <c r="G14">
@@ -1002,7 +1084,7 @@
         <f t="shared" ref="H14:H16" si="5">G14/$G$16*100</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="5">
         <v>1</v>
       </c>
       <c r="K14">
@@ -1012,7 +1094,7 @@
         <f t="shared" ref="L14:L16" si="6">K14/$K$16*100</f>
         <v>39.16083916083916</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="5">
         <v>1</v>
       </c>
       <c r="O14">
@@ -1022,7 +1104,7 @@
         <f t="shared" ref="P14:P16" si="7">O14/$O$16*100</f>
         <v>40.634920634920633</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="7">
         <v>1</v>
       </c>
       <c r="S14">
@@ -1035,7 +1117,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F15" s="8">
+      <c r="F15" s="5">
         <v>2</v>
       </c>
       <c r="G15">
@@ -1045,7 +1127,7 @@
         <f t="shared" si="5"/>
         <v>28.571428571428569</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="5">
         <v>2</v>
       </c>
       <c r="K15">
@@ -1055,7 +1137,7 @@
         <f t="shared" si="6"/>
         <v>17.622377622377623</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="5">
         <v>2</v>
       </c>
       <c r="O15">
@@ -1065,7 +1147,7 @@
         <f t="shared" si="7"/>
         <v>15.873015873015872</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="7">
         <v>2</v>
       </c>
       <c r="S15">
@@ -1078,7 +1160,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <f>SUM(G13:G15)</f>
         <v>7</v>
       </c>
@@ -1086,7 +1168,7 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="1">
         <f>SUM(K13:K15)</f>
         <v>715</v>
       </c>
@@ -1094,7 +1176,7 @@
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="1">
         <f>SUM(O13:O15)</f>
         <v>315</v>
       </c>
@@ -1102,7 +1184,7 @@
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="1">
         <f>SUM(S13:S15)</f>
         <v>1038</v>
       </c>
@@ -1112,66 +1194,66 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="G17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="S17" s="3"/>
-    </row>
-    <row r="19" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="G17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="19" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="C21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="G21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
-        <v>7</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="K21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="P21" t="s">
-        <v>7</v>
-      </c>
-      <c r="R21" t="s">
-        <v>39</v>
-      </c>
-      <c r="S21" t="s">
-        <v>1</v>
-      </c>
-      <c r="T21" s="5" t="s">
+      <c r="O21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B22" s="8">
+      <c r="B22" s="5">
         <v>1</v>
       </c>
       <c r="C22">
@@ -1180,7 +1262,7 @@
       <c r="D22">
         <v>100</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="5">
         <v>0</v>
       </c>
       <c r="G22">
@@ -1190,7 +1272,7 @@
         <f>G22/$G$25*100</f>
         <v>42.424242424242422</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="5">
         <v>0</v>
       </c>
       <c r="K22">
@@ -1200,7 +1282,7 @@
         <f>K22/$K$25*100</f>
         <v>48.802395209580837</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="5">
         <v>0</v>
       </c>
       <c r="O22">
@@ -1210,7 +1292,7 @@
         <f>O22/$O$25*100</f>
         <v>14.285714285714285</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="7">
         <v>0</v>
       </c>
       <c r="S22">
@@ -1226,7 +1308,7 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="5">
         <v>1</v>
       </c>
       <c r="G23">
@@ -1236,7 +1318,7 @@
         <f t="shared" ref="H23:H25" si="9">G23/$G$25*100</f>
         <v>40.404040404040401</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="5">
         <v>1</v>
       </c>
       <c r="K23">
@@ -1246,7 +1328,7 @@
         <f t="shared" ref="L23:L25" si="10">K23/$K$25*100</f>
         <v>32.934131736526943</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="5">
         <v>1</v>
       </c>
       <c r="O23">
@@ -1256,7 +1338,7 @@
         <f t="shared" ref="P23:P25" si="11">O23/$O$25*100</f>
         <v>57.142857142857139</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="7">
         <v>1</v>
       </c>
       <c r="S23">
@@ -1269,7 +1351,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="F24" s="8">
+      <c r="F24" s="5">
         <v>2</v>
       </c>
       <c r="G24">
@@ -1279,7 +1361,7 @@
         <f t="shared" si="9"/>
         <v>17.171717171717169</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="5">
         <v>2</v>
       </c>
       <c r="K24">
@@ -1289,7 +1371,7 @@
         <f t="shared" si="10"/>
         <v>18.263473053892216</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="5">
         <v>2</v>
       </c>
       <c r="O24">
@@ -1299,7 +1381,7 @@
         <f t="shared" si="11"/>
         <v>28.571428571428569</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="7">
         <v>2</v>
       </c>
       <c r="S24">
@@ -1312,7 +1394,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="G25" s="3">
+      <c r="G25" s="1">
         <f>SUM(G22:G24)</f>
         <v>99</v>
       </c>
@@ -1320,7 +1402,7 @@
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="1">
         <f>SUM(K22:K24)</f>
         <v>1002</v>
       </c>
@@ -1328,7 +1410,7 @@
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="1">
         <f>SUM(O22:O24)</f>
         <v>7</v>
       </c>
@@ -1336,7 +1418,7 @@
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="1">
         <f>SUM(S22:S24)</f>
         <v>1109</v>
       </c>
@@ -1346,69 +1428,69 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="G26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="S26" s="3"/>
+      <c r="G26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T27" s="3"/>
-    </row>
-    <row r="28" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="B30" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="C30" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="G30" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L30" t="s">
-        <v>7</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="K30" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O30" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="P30" t="s">
-        <v>7</v>
-      </c>
-      <c r="R30" t="s">
+      <c r="O30" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S30" t="s">
-        <v>1</v>
-      </c>
-      <c r="T30" s="5" t="s">
+      <c r="S30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B31" s="8">
+      <c r="B31" s="5">
         <v>0</v>
       </c>
       <c r="C31">
@@ -1417,7 +1499,7 @@
       <c r="D31">
         <v>100</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="5">
         <v>0</v>
       </c>
       <c r="G31">
@@ -1427,7 +1509,7 @@
         <f>G31/$G$34*100</f>
         <v>53.070175438596493</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="5">
         <v>0</v>
       </c>
       <c r="K31">
@@ -1436,7 +1518,7 @@
       <c r="L31">
         <v>67</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="5">
         <v>0</v>
       </c>
       <c r="O31">
@@ -1446,7 +1528,7 @@
         <f>O31/$O$34*100</f>
         <v>46.666666666666664</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="7">
         <v>0</v>
       </c>
       <c r="S31">
@@ -1462,7 +1544,7 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="5">
         <v>1</v>
       </c>
       <c r="G32">
@@ -1472,7 +1554,7 @@
         <f t="shared" ref="H32:H34" si="12">G32/$G$34*100</f>
         <v>31.359649122807014</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="5">
         <v>1</v>
       </c>
       <c r="K32">
@@ -1481,7 +1563,7 @@
       <c r="L32">
         <v>33</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="5">
         <v>1</v>
       </c>
       <c r="O32">
@@ -1491,7 +1573,7 @@
         <f t="shared" ref="P32:P34" si="13">O32/$O$34*100</f>
         <v>40</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="7">
         <v>1</v>
       </c>
       <c r="S32">
@@ -1504,7 +1586,7 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F33" s="8">
+      <c r="F33" s="5">
         <v>2</v>
       </c>
       <c r="G33">
@@ -1520,7 +1602,7 @@
       <c r="L33">
         <v>100</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="5">
         <v>2</v>
       </c>
       <c r="O33">
@@ -1530,7 +1612,7 @@
         <f t="shared" si="13"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="7">
         <v>2</v>
       </c>
       <c r="S33">
@@ -1543,7 +1625,7 @@
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G34" s="3">
+      <c r="G34" s="1">
         <f>SUM(G31:G33)</f>
         <v>456</v>
       </c>
@@ -1551,7 +1633,7 @@
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="1">
         <f>SUM(O31:O33)</f>
         <v>15</v>
       </c>
@@ -1559,7 +1641,7 @@
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="S34" s="3">
+      <c r="S34" s="1">
         <f>SUM(S31:S33)</f>
         <v>475</v>
       </c>
@@ -1569,59 +1651,59 @@
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="S35" s="3"/>
+      <c r="G35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="T36" s="3"/>
-    </row>
-    <row r="37" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+      <c r="B39" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="C39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="G39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K39" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L39" t="s">
-        <v>7</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="K39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O39" t="s">
-        <v>1</v>
-      </c>
-      <c r="P39" s="5" t="s">
+      <c r="O39" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P39" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B40" s="8">
+      <c r="B40" s="11">
         <v>0</v>
       </c>
       <c r="C40">
@@ -1631,7 +1713,7 @@
         <f>C40/$C$43*100</f>
         <v>40.853658536585364</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="11">
         <v>0</v>
       </c>
       <c r="G40">
@@ -1641,7 +1723,7 @@
         <f>G40/$G$43*100</f>
         <v>15.384615384615385</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="11">
         <v>0</v>
       </c>
       <c r="K40">
@@ -1650,7 +1732,7 @@
       <c r="L40">
         <v>50</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="7">
         <v>0</v>
       </c>
       <c r="O40">
@@ -1663,7 +1745,7 @@
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B41" s="8">
+      <c r="B41" s="5">
         <v>1</v>
       </c>
       <c r="C41">
@@ -1673,7 +1755,7 @@
         <f t="shared" ref="D41:D43" si="14">C41/$C$43*100</f>
         <v>43.292682926829265</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="5">
         <v>1</v>
       </c>
       <c r="G41">
@@ -1683,7 +1765,7 @@
         <f t="shared" ref="H41:H43" si="15">G41/$G$43*100</f>
         <v>53.846153846153847</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="7">
         <v>1</v>
       </c>
       <c r="K41">
@@ -1692,7 +1774,7 @@
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="7">
         <v>1</v>
       </c>
       <c r="O41">
@@ -1705,7 +1787,7 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B42" s="8">
+      <c r="B42" s="5">
         <v>2</v>
       </c>
       <c r="C42">
@@ -1715,7 +1797,7 @@
         <f t="shared" si="14"/>
         <v>15.853658536585366</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="5">
         <v>2</v>
       </c>
       <c r="G42">
@@ -1725,7 +1807,7 @@
         <f t="shared" si="15"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="5">
         <v>2</v>
       </c>
       <c r="K42">
@@ -1734,7 +1816,7 @@
       <c r="L42">
         <v>50</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="7">
         <v>2</v>
       </c>
       <c r="O42">
@@ -1747,7 +1829,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C43" s="3">
+      <c r="C43" s="1">
         <f>SUM(C40:C42)</f>
         <v>164</v>
       </c>
@@ -1755,7 +1837,7 @@
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="1">
         <f>SUM(G40:G42)</f>
         <v>13</v>
       </c>
@@ -1779,73 +1861,73 @@
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="46" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="C44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="46" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="C48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G48" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>7</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="G48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K48" t="s">
-        <v>1</v>
-      </c>
-      <c r="L48" t="s">
-        <v>7</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="K48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N48" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O48" t="s">
-        <v>1</v>
-      </c>
-      <c r="P48" t="s">
-        <v>7</v>
-      </c>
-      <c r="R48" t="s">
+      <c r="O48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P48" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R48" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S48" t="s">
-        <v>1</v>
-      </c>
-      <c r="T48" t="s">
-        <v>7</v>
-      </c>
-      <c r="V48" t="s">
+      <c r="S48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T48" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="V48" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W48" t="s">
-        <v>1</v>
-      </c>
-      <c r="X48" t="s">
+      <c r="W48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X48" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B49">
+      <c r="B49" s="7">
         <v>0</v>
       </c>
       <c r="C49">
@@ -1856,7 +1938,7 @@
         <f>C49/$C$52*100</f>
         <v>45.859872611464972</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="4">
         <v>0</v>
       </c>
       <c r="G49">
@@ -1866,7 +1948,7 @@
         <f>G49/$G$52*100</f>
         <v>21.476510067114095</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="7">
         <v>0</v>
       </c>
       <c r="K49">
@@ -1877,7 +1959,7 @@
         <f>K49/$K$52*100</f>
         <v>33.242876526458616</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="7">
         <v>0</v>
       </c>
       <c r="O49">
@@ -1888,7 +1970,7 @@
         <f>O49/$O$52*100</f>
         <v>47.307692307692307</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="7">
         <v>0</v>
       </c>
       <c r="S49">
@@ -1899,7 +1981,7 @@
         <f>S49/$S$52*100</f>
         <v>42.011834319526628</v>
       </c>
-      <c r="V49">
+      <c r="V49" s="7">
         <v>0</v>
       </c>
       <c r="W49">
@@ -1912,7 +1994,7 @@
       </c>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B50">
+      <c r="B50" s="7">
         <v>1</v>
       </c>
       <c r="C50">
@@ -1923,7 +2005,7 @@
         <f t="shared" ref="D50:D52" si="18">C50/$C$52*100</f>
         <v>38.004246284501065</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="4">
         <v>1</v>
       </c>
       <c r="G50">
@@ -1933,7 +2015,7 @@
         <f t="shared" ref="H50:H52" si="19">G50/$G$52*100</f>
         <v>51.006711409395976</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="7">
         <v>1</v>
       </c>
       <c r="K50">
@@ -1944,7 +2026,7 @@
         <f t="shared" ref="L50:L52" si="20">K50/$K$52*100</f>
         <v>46.132971506105832</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="7">
         <v>1</v>
       </c>
       <c r="O50">
@@ -1955,7 +2037,7 @@
         <f t="shared" ref="P50:P52" si="21">O50/$O$52*100</f>
         <v>35.256410256410255</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="7">
         <v>1</v>
       </c>
       <c r="S50">
@@ -1966,7 +2048,7 @@
         <f t="shared" ref="T50:T52" si="22">S50/$S$52*100</f>
         <v>41.42011834319527</v>
       </c>
-      <c r="V50">
+      <c r="V50" s="7">
         <v>1</v>
       </c>
       <c r="W50">
@@ -1979,7 +2061,7 @@
       </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B51">
+      <c r="B51" s="7">
         <v>2</v>
       </c>
       <c r="C51">
@@ -1990,7 +2072,7 @@
         <f t="shared" si="18"/>
         <v>16.13588110403397</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="4">
         <v>2</v>
       </c>
       <c r="G51">
@@ -2000,7 +2082,7 @@
         <f t="shared" si="19"/>
         <v>27.516778523489933</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="7">
         <v>2</v>
       </c>
       <c r="K51">
@@ -2011,7 +2093,7 @@
         <f t="shared" si="20"/>
         <v>20.624151967435552</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="7">
         <v>2</v>
       </c>
       <c r="O51">
@@ -2022,7 +2104,7 @@
         <f t="shared" si="21"/>
         <v>17.435897435897434</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="7">
         <v>2</v>
       </c>
       <c r="S51">
@@ -2033,7 +2115,7 @@
         <f t="shared" si="22"/>
         <v>16.568047337278109</v>
       </c>
-      <c r="V51">
+      <c r="V51" s="7">
         <v>2</v>
       </c>
       <c r="W51">
@@ -2046,7 +2128,7 @@
       </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C52" s="3">
+      <c r="C52" s="1">
         <f>SUM(C49:C51)</f>
         <v>471</v>
       </c>
@@ -2054,7 +2136,7 @@
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="1">
         <f>SUM(G49:G51)</f>
         <v>298</v>
       </c>
@@ -2062,7 +2144,7 @@
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="1">
         <f>SUM(K49:K51)</f>
         <v>737</v>
       </c>
@@ -2070,7 +2152,7 @@
         <f t="shared" si="20"/>
         <v>100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="1">
         <f>SUM(O49:O51)</f>
         <v>2340</v>
       </c>
@@ -2078,7 +2160,7 @@
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="1">
         <f>SUM(S49:S51)</f>
         <v>338</v>
       </c>
@@ -2086,7 +2168,7 @@
         <f t="shared" si="22"/>
         <v>100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="W52" s="1">
         <f>SUM(W49:W51)</f>
         <v>74</v>
       </c>
@@ -2096,18 +2178,63 @@
       </c>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T56" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="V56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X56" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B57">
+      <c r="B57" s="7">
         <v>0</v>
       </c>
       <c r="C57">
@@ -2118,9 +2245,54 @@
         <f>C57/$C$60*100</f>
         <v>42.320338186942223</v>
       </c>
+      <c r="F57" s="7">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>500</v>
+      </c>
+      <c r="H57">
+        <v>34.317089910775564</v>
+      </c>
+      <c r="J57" s="7">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>448</v>
+      </c>
+      <c r="L57">
+        <v>43.159922928709058</v>
+      </c>
+      <c r="N57" s="7">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>532</v>
+      </c>
+      <c r="P57">
+        <v>47.971145175834081</v>
+      </c>
+      <c r="R57" s="7">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>252</v>
+      </c>
+      <c r="T57">
+        <v>53.05263157894737</v>
+      </c>
+      <c r="V57" s="7">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>70</v>
+      </c>
+      <c r="X57">
+        <v>39.106145251396647</v>
+      </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B58">
+      <c r="B58" s="7">
         <v>1</v>
       </c>
       <c r="C58">
@@ -2131,9 +2303,54 @@
         <f t="shared" ref="D58:D60" si="25">C58/$C$60*100</f>
         <v>39.196806012212306</v>
       </c>
+      <c r="F58" s="7">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>655</v>
+      </c>
+      <c r="H58">
+        <v>44.955387783115988</v>
+      </c>
+      <c r="J58" s="7">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>411</v>
+      </c>
+      <c r="L58">
+        <v>39.595375722543352</v>
+      </c>
+      <c r="N58" s="7">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>375</v>
+      </c>
+      <c r="P58">
+        <v>33.814247069431921</v>
+      </c>
+      <c r="R58" s="7">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>150</v>
+      </c>
+      <c r="T58">
+        <v>31.578947368421051</v>
+      </c>
+      <c r="V58" s="7">
+        <v>1</v>
+      </c>
+      <c r="W58">
+        <v>78</v>
+      </c>
+      <c r="X58">
+        <v>43.575418994413404</v>
+      </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B59">
+      <c r="B59" s="7">
         <v>2</v>
       </c>
       <c r="C59">
@@ -2143,6 +2360,51 @@
       <c r="D59">
         <f t="shared" si="25"/>
         <v>18.482855800845467</v>
+      </c>
+      <c r="F59" s="7">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>302</v>
+      </c>
+      <c r="H59">
+        <v>20.727522306108444</v>
+      </c>
+      <c r="J59" s="7">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>179</v>
+      </c>
+      <c r="L59">
+        <v>17.24470134874759</v>
+      </c>
+      <c r="N59" s="7">
+        <v>2</v>
+      </c>
+      <c r="O59">
+        <v>202</v>
+      </c>
+      <c r="P59">
+        <v>18.214607754733994</v>
+      </c>
+      <c r="R59" s="7">
+        <v>2</v>
+      </c>
+      <c r="S59">
+        <v>73</v>
+      </c>
+      <c r="T59">
+        <v>15.368421052631579</v>
+      </c>
+      <c r="V59" s="7">
+        <v>2</v>
+      </c>
+      <c r="W59">
+        <v>31</v>
+      </c>
+      <c r="X59">
+        <v>17.318435754189945</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.3">
@@ -2152,6 +2414,36 @@
       </c>
       <c r="D60">
         <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="G60">
+        <v>1457</v>
+      </c>
+      <c r="H60">
+        <v>100</v>
+      </c>
+      <c r="K60">
+        <v>1038</v>
+      </c>
+      <c r="L60">
+        <v>100</v>
+      </c>
+      <c r="O60">
+        <v>1109</v>
+      </c>
+      <c r="P60">
+        <v>100</v>
+      </c>
+      <c r="S60">
+        <v>475</v>
+      </c>
+      <c r="T60">
+        <v>100</v>
+      </c>
+      <c r="W60">
+        <v>179</v>
+      </c>
+      <c r="X60">
         <v>100</v>
       </c>
     </row>
@@ -2165,8 +2457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFBD1BB-8849-4487-8552-39BD208832CB}">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2186,54 +2478,63 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="G2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="O2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="S2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="15" t="s">
         <v>40</v>
       </c>
+      <c r="W2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>0</v>
       </c>
       <c r="C3">
@@ -2243,7 +2544,7 @@
         <f>C3/$C$7*100</f>
         <v>37.953091684434966</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="5">
         <v>0</v>
       </c>
       <c r="G3">
@@ -2253,7 +2554,7 @@
         <f>G3/$G$7*100</f>
         <v>51.006711409395976</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="5">
         <v>0</v>
       </c>
       <c r="K3">
@@ -2263,7 +2564,7 @@
         <f>K3/$K$7*100</f>
         <v>47.142857142857139</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="5">
         <v>0</v>
       </c>
       <c r="O3">
@@ -2273,7 +2574,7 @@
         <f>O3/$O$7*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="5">
         <v>0</v>
       </c>
       <c r="S3">
@@ -2283,7 +2584,7 @@
         <f>S3/$S$7*100</f>
         <v>47.368421052631575</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="7">
         <v>0</v>
       </c>
       <c r="W3">
@@ -2296,7 +2597,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
       <c r="C4">
@@ -2306,7 +2607,7 @@
         <f t="shared" ref="D4:D7" si="0">C4/$C$7*100</f>
         <v>28.784648187633259</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <v>1</v>
       </c>
       <c r="G4">
@@ -2316,7 +2617,7 @@
         <f t="shared" ref="H4:H7" si="1">G4/$G$7*100</f>
         <v>12.751677852348994</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="5">
         <v>1</v>
       </c>
       <c r="K4">
@@ -2326,7 +2627,7 @@
         <f t="shared" ref="L4:L7" si="2">K4/$K$7*100</f>
         <v>19.047619047619047</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="7">
         <v>1</v>
       </c>
       <c r="O4">
@@ -2336,7 +2637,7 @@
         <f t="shared" ref="P4:P7" si="3">O4/$O$7*100</f>
         <v>0</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="5">
         <v>1</v>
       </c>
       <c r="S4">
@@ -2346,7 +2647,7 @@
         <f t="shared" ref="T4:T7" si="4">S4/$S$7*100</f>
         <v>19.298245614035086</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="7">
         <v>1</v>
       </c>
       <c r="W4">
@@ -2359,7 +2660,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
       <c r="C5">
@@ -2369,7 +2670,7 @@
         <f t="shared" si="0"/>
         <v>15.991471215351813</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <v>2</v>
       </c>
       <c r="G5">
@@ -2379,7 +2680,7 @@
         <f t="shared" si="1"/>
         <v>27.516778523489933</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="5">
         <v>2</v>
       </c>
       <c r="K5">
@@ -2389,7 +2690,7 @@
         <f t="shared" si="2"/>
         <v>21.111111111111111</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="5">
         <v>2</v>
       </c>
       <c r="O5">
@@ -2399,7 +2700,7 @@
         <f t="shared" si="3"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="5">
         <v>2</v>
       </c>
       <c r="S5">
@@ -2409,7 +2710,7 @@
         <f t="shared" si="4"/>
         <v>17.543859649122805</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="7">
         <v>2</v>
       </c>
       <c r="W5">
@@ -2422,7 +2723,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
       <c r="C6">
@@ -2432,7 +2733,7 @@
         <f t="shared" si="0"/>
         <v>17.270788912579956</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="5">
         <v>3</v>
       </c>
       <c r="G6">
@@ -2442,7 +2743,7 @@
         <f t="shared" si="1"/>
         <v>8.724832214765101</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="5">
         <v>3</v>
       </c>
       <c r="K6">
@@ -2452,7 +2753,7 @@
         <f t="shared" si="2"/>
         <v>12.698412698412698</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="7">
         <v>3</v>
       </c>
       <c r="O6">
@@ -2462,7 +2763,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="5">
         <v>3</v>
       </c>
       <c r="S6">
@@ -2472,7 +2773,7 @@
         <f t="shared" si="4"/>
         <v>15.789473684210526</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="7">
         <v>3</v>
       </c>
       <c r="W6">
@@ -2485,7 +2786,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <f>SUM(C3:C6)</f>
         <v>469</v>
       </c>
@@ -2493,7 +2794,7 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <f>SUM(G3:G6)</f>
         <v>298</v>
       </c>
@@ -2501,7 +2802,7 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="1">
         <f>SUM(K3:K6)</f>
         <v>630</v>
       </c>
@@ -2509,7 +2810,7 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="1">
         <f>SUM(O3:O6)</f>
         <v>3</v>
       </c>
@@ -2517,7 +2818,7 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="1">
         <f>SUM(S3:S6)</f>
         <v>57</v>
       </c>
@@ -2534,43 +2835,61 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="C12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="G12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="K12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="O12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="W12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
+      <c r="B13" s="7">
         <v>0</v>
       </c>
       <c r="C13">
@@ -2579,7 +2898,7 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="5">
         <v>0</v>
       </c>
       <c r="G13">
@@ -2589,7 +2908,7 @@
         <f>G13/$G$17*100</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="5">
         <v>0</v>
       </c>
       <c r="K13">
@@ -2599,7 +2918,7 @@
         <f>K13/$K$17*100</f>
         <v>39.16083916083916</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="5">
         <v>0</v>
       </c>
       <c r="O13">
@@ -2609,7 +2928,7 @@
         <f>O13/$O$17*100</f>
         <v>40.634920634920633</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="7">
         <v>0</v>
       </c>
       <c r="W13">
@@ -2622,7 +2941,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
+      <c r="B14" s="7">
         <v>1</v>
       </c>
       <c r="C14">
@@ -2631,7 +2950,7 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="5">
         <v>1</v>
       </c>
       <c r="G14">
@@ -2641,7 +2960,7 @@
         <f t="shared" ref="H14:H17" si="7">G14/$G$17*100</f>
         <v>14.285714285714285</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="5">
         <v>1</v>
       </c>
       <c r="K14">
@@ -2651,7 +2970,7 @@
         <f t="shared" ref="L14:L17" si="8">K14/$K$17*100</f>
         <v>22.377622377622377</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="5">
         <v>1</v>
       </c>
       <c r="O14">
@@ -2661,7 +2980,7 @@
         <f t="shared" ref="P14:P17" si="9">O14/$O$17*100</f>
         <v>21.904761904761905</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="7">
         <v>1</v>
       </c>
       <c r="W14">
@@ -2674,7 +2993,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="8">
+      <c r="B15" s="5">
         <v>2</v>
       </c>
       <c r="C15">
@@ -2683,7 +3002,7 @@
       <c r="D15">
         <v>100</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="5">
         <v>2</v>
       </c>
       <c r="G15">
@@ -2693,7 +3012,7 @@
         <f t="shared" si="7"/>
         <v>28.571428571428569</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="5">
         <v>2</v>
       </c>
       <c r="K15">
@@ -2703,7 +3022,7 @@
         <f t="shared" si="8"/>
         <v>17.622377622377623</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="5">
         <v>2</v>
       </c>
       <c r="O15">
@@ -2713,7 +3032,7 @@
         <f t="shared" si="9"/>
         <v>15.873015873015872</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="7">
         <v>2</v>
       </c>
       <c r="W15">
@@ -2726,7 +3045,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
+      <c r="B16" s="7">
         <v>3</v>
       </c>
       <c r="C16">
@@ -2735,7 +3054,7 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="5">
         <v>3</v>
       </c>
       <c r="G16">
@@ -2745,7 +3064,7 @@
         <f t="shared" si="7"/>
         <v>14.285714285714285</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="5">
         <v>3</v>
       </c>
       <c r="K16">
@@ -2755,7 +3074,7 @@
         <f t="shared" si="8"/>
         <v>20.83916083916084</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="5">
         <v>3</v>
       </c>
       <c r="O16">
@@ -2765,7 +3084,7 @@
         <f t="shared" si="9"/>
         <v>21.587301587301589</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="7">
         <v>3</v>
       </c>
       <c r="W16">
@@ -2784,7 +3103,7 @@
       <c r="D17">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <f>SUM(G13:G16)</f>
         <v>7</v>
       </c>
@@ -2792,7 +3111,7 @@
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="1">
         <f>SUM(K13:K16)</f>
         <v>715</v>
       </c>
@@ -2800,7 +3119,7 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="1">
         <f>SUM(O13:O16)</f>
         <v>315</v>
       </c>
@@ -2817,43 +3136,61 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="B22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="C22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="G22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="K22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="O22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="W22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X22" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B23" s="8">
+      <c r="B23" s="5">
         <v>0</v>
       </c>
       <c r="C23">
@@ -2862,7 +3199,7 @@
       <c r="D23">
         <v>100</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="5">
         <v>0</v>
       </c>
       <c r="G23">
@@ -2872,7 +3209,7 @@
         <f>G23/$G$27*100</f>
         <v>40.404040404040401</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="5">
         <v>0</v>
       </c>
       <c r="K23">
@@ -2882,7 +3219,7 @@
         <f>K23/$K$27*100</f>
         <v>32.934131736526943</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="5">
         <v>0</v>
       </c>
       <c r="O23">
@@ -2892,7 +3229,7 @@
         <f>O23/$O$27*100</f>
         <v>57.142857142857139</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="7">
         <v>0</v>
       </c>
       <c r="W23">
@@ -2905,7 +3242,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B24" s="5">
+      <c r="B24" s="7">
         <v>1</v>
       </c>
       <c r="C24">
@@ -2914,7 +3251,7 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="5">
         <v>1</v>
       </c>
       <c r="G24">
@@ -2924,7 +3261,7 @@
         <f t="shared" ref="H24:H27" si="12">G24/$G$27*100</f>
         <v>17.171717171717169</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="5">
         <v>1</v>
       </c>
       <c r="K24">
@@ -2934,7 +3271,7 @@
         <f t="shared" ref="L24:L27" si="13">K24/$K$27*100</f>
         <v>24.051896207584829</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="5">
         <v>1</v>
       </c>
       <c r="O24">
@@ -2944,7 +3281,7 @@
         <f t="shared" ref="P24:P27" si="14">O24/$O$27*100</f>
         <v>14.285714285714285</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="7">
         <v>1</v>
       </c>
       <c r="W24">
@@ -2957,7 +3294,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B25" s="5">
+      <c r="B25" s="7">
         <v>2</v>
       </c>
       <c r="C25">
@@ -2966,7 +3303,7 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="5">
         <v>2</v>
       </c>
       <c r="G25">
@@ -2976,7 +3313,7 @@
         <f t="shared" si="12"/>
         <v>17.171717171717169</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="5">
         <v>2</v>
       </c>
       <c r="K25">
@@ -2986,7 +3323,7 @@
         <f t="shared" si="13"/>
         <v>18.263473053892216</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="5">
         <v>2</v>
       </c>
       <c r="O25">
@@ -2996,7 +3333,7 @@
         <f t="shared" si="14"/>
         <v>28.571428571428569</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="7">
         <v>2</v>
       </c>
       <c r="W25">
@@ -3009,7 +3346,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B26" s="5">
+      <c r="B26" s="7">
         <v>3</v>
       </c>
       <c r="C26">
@@ -3018,7 +3355,7 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="5">
         <v>3</v>
       </c>
       <c r="G26">
@@ -3028,7 +3365,7 @@
         <f t="shared" si="12"/>
         <v>25.252525252525253</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="5">
         <v>3</v>
       </c>
       <c r="K26">
@@ -3038,7 +3375,7 @@
         <f t="shared" si="13"/>
         <v>24.750499001996008</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="5">
         <v>3</v>
       </c>
       <c r="O26">
@@ -3048,7 +3385,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="7">
         <v>3</v>
       </c>
       <c r="W26">
@@ -3067,7 +3404,7 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="1">
         <f>SUM(G23:G26)</f>
         <v>99</v>
       </c>
@@ -3075,7 +3412,7 @@
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="1">
         <f>SUM(K23:K26)</f>
         <v>1002</v>
       </c>
@@ -3083,7 +3420,7 @@
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="1">
         <f>SUM(O23:O26)</f>
         <v>7</v>
       </c>
@@ -3100,43 +3437,61 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="B32" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="C32" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="G32" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="K32" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O32" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="V32" t="s">
+      <c r="O32" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V32" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="W32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X32" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B33" s="5">
+      <c r="B33" s="7">
         <v>0</v>
       </c>
       <c r="C33">
@@ -3145,7 +3500,7 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="5">
         <v>0</v>
       </c>
       <c r="G33">
@@ -3155,7 +3510,7 @@
         <f>G33/$G$37*100</f>
         <v>31.359649122807014</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="5">
         <v>0</v>
       </c>
       <c r="K33">
@@ -3164,7 +3519,7 @@
       <c r="L33">
         <v>33.33</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="5">
         <v>0</v>
       </c>
       <c r="O33">
@@ -3174,7 +3529,7 @@
         <f>O33/$O$37*100</f>
         <v>40</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="7">
         <v>0</v>
       </c>
       <c r="W33">
@@ -3187,7 +3542,7 @@
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B34" s="8">
+      <c r="B34" s="5">
         <v>1</v>
       </c>
       <c r="C34">
@@ -3196,7 +3551,7 @@
       <c r="D34">
         <v>100</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="5">
         <v>1</v>
       </c>
       <c r="G34">
@@ -3206,7 +3561,7 @@
         <f t="shared" ref="H34:H37" si="16">G34/$G$37*100</f>
         <v>24.780701754385966</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="5">
         <v>1</v>
       </c>
       <c r="K34">
@@ -3215,7 +3570,7 @@
       <c r="L34">
         <v>66.67</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="5">
         <v>1</v>
       </c>
       <c r="O34">
@@ -3225,7 +3580,7 @@
         <f t="shared" ref="P34:P37" si="17">O34/$O$37*100</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="7">
         <v>1</v>
       </c>
       <c r="W34">
@@ -3238,7 +3593,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B35" s="5">
+      <c r="B35" s="7">
         <v>2</v>
       </c>
       <c r="C35">
@@ -3247,7 +3602,7 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="5">
         <v>2</v>
       </c>
       <c r="G35">
@@ -3257,7 +3612,7 @@
         <f t="shared" si="16"/>
         <v>15.570175438596493</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="7">
         <v>2</v>
       </c>
       <c r="K35">
@@ -3266,7 +3621,7 @@
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="5">
         <v>2</v>
       </c>
       <c r="O35">
@@ -3276,7 +3631,7 @@
         <f t="shared" si="17"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="7">
         <v>2</v>
       </c>
       <c r="W35">
@@ -3289,7 +3644,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B36" s="5">
+      <c r="B36" s="7">
         <v>3</v>
       </c>
       <c r="C36">
@@ -3298,7 +3653,7 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="5">
         <v>3</v>
       </c>
       <c r="G36">
@@ -3308,7 +3663,7 @@
         <f t="shared" si="16"/>
         <v>28.289473684210524</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="7">
         <v>3</v>
       </c>
       <c r="K36">
@@ -3317,7 +3672,7 @@
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="5">
         <v>3</v>
       </c>
       <c r="O36">
@@ -3327,7 +3682,7 @@
         <f t="shared" si="17"/>
         <v>20</v>
       </c>
-      <c r="V36">
+      <c r="V36" s="7">
         <v>3</v>
       </c>
       <c r="W36">
@@ -3343,7 +3698,7 @@
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="1">
         <f>SUM(G33:G36)</f>
         <v>456</v>
       </c>
@@ -3351,14 +3706,14 @@
         <f t="shared" si="16"/>
         <v>100</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="1">
         <f>SUM(K33:K36)</f>
         <v>3</v>
       </c>
       <c r="L37">
         <v>100</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37" s="1">
         <f>SUM(O33:O36)</f>
         <v>15</v>
       </c>
@@ -3375,37 +3730,52 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+      <c r="B42" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="C42" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="G42" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K42" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="V42" t="s">
+      <c r="K42" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V42" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="W42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X42" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B43" s="8">
+      <c r="B43" s="5">
         <v>0</v>
       </c>
       <c r="C43">
@@ -3415,7 +3785,7 @@
         <f>C43/$C$47*100</f>
         <v>43.292682926829265</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="5">
         <v>0</v>
       </c>
       <c r="G43">
@@ -3425,7 +3795,7 @@
         <f>G43/$G$47*100</f>
         <v>53.846153846153847</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="7">
         <v>0</v>
       </c>
       <c r="K43">
@@ -3434,7 +3804,7 @@
       <c r="L43">
         <v>0</v>
       </c>
-      <c r="V43">
+      <c r="V43" s="7">
         <v>0</v>
       </c>
       <c r="W43">
@@ -3447,7 +3817,7 @@
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B44" s="8">
+      <c r="B44" s="5">
         <v>1</v>
       </c>
       <c r="C44">
@@ -3457,7 +3827,7 @@
         <f t="shared" ref="D44:D47" si="19">C44/$C$47*100</f>
         <v>25</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="5">
         <v>1</v>
       </c>
       <c r="G44">
@@ -3467,7 +3837,7 @@
         <f t="shared" ref="H44:H47" si="20">G44/$G$47*100</f>
         <v>7.6923076923076925</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J44" s="5">
         <v>1</v>
       </c>
       <c r="K44">
@@ -3476,7 +3846,7 @@
       <c r="L44">
         <v>50</v>
       </c>
-      <c r="V44">
+      <c r="V44" s="7">
         <v>1</v>
       </c>
       <c r="W44">
@@ -3489,7 +3859,7 @@
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B45" s="8">
+      <c r="B45" s="5">
         <v>2</v>
       </c>
       <c r="C45">
@@ -3499,7 +3869,7 @@
         <f t="shared" si="19"/>
         <v>15.853658536585366</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="5">
         <v>2</v>
       </c>
       <c r="G45">
@@ -3509,7 +3879,7 @@
         <f t="shared" si="20"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="5">
         <v>2</v>
       </c>
       <c r="K45">
@@ -3518,7 +3888,7 @@
       <c r="L45">
         <v>50</v>
       </c>
-      <c r="V45">
+      <c r="V45" s="7">
         <v>2</v>
       </c>
       <c r="W45">
@@ -3531,7 +3901,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B46" s="8">
+      <c r="B46" s="5">
         <v>3</v>
       </c>
       <c r="C46">
@@ -3541,7 +3911,7 @@
         <f t="shared" si="19"/>
         <v>15.853658536585366</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="5">
         <v>3</v>
       </c>
       <c r="G46">
@@ -3551,7 +3921,7 @@
         <f t="shared" si="20"/>
         <v>7.6923076923076925</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="7">
         <v>3</v>
       </c>
       <c r="K46">
@@ -3560,7 +3930,7 @@
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="V46">
+      <c r="V46" s="7">
         <v>3</v>
       </c>
       <c r="W46">
@@ -3573,7 +3943,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C47" s="3">
+      <c r="C47" s="1">
         <f>SUM(C43:C46)</f>
         <v>164</v>
       </c>
@@ -3581,7 +3951,7 @@
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="1">
         <f>SUM(G43:G46)</f>
         <v>13</v>
       </c>
@@ -3589,7 +3959,7 @@
         <f t="shared" si="20"/>
         <v>100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="1">
         <f>SUM(K43:K46)</f>
         <v>2</v>
       </c>
@@ -3605,70 +3975,70 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C51" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="C51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>7</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="G51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L51" t="s">
-        <v>7</v>
-      </c>
-      <c r="N51" t="s">
+      <c r="K51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N51" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O51" t="s">
-        <v>1</v>
-      </c>
-      <c r="P51" t="s">
-        <v>7</v>
-      </c>
-      <c r="R51" t="s">
+      <c r="O51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R51" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S51" t="s">
-        <v>1</v>
-      </c>
-      <c r="T51" t="s">
-        <v>7</v>
-      </c>
-      <c r="V51" t="s">
+      <c r="S51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V51" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W51" t="s">
-        <v>1</v>
-      </c>
-      <c r="X51" t="s">
+      <c r="W51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X51" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B52">
+      <c r="B52" s="7">
         <v>0</v>
       </c>
       <c r="C52">
@@ -3679,7 +4049,7 @@
         <f>C52/$C$56*100</f>
         <v>38.004246284501065</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="5">
         <v>0</v>
       </c>
       <c r="G52">
@@ -3690,7 +4060,7 @@
         <f>G52/$G$56*100</f>
         <v>51.006711409395976</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="7">
         <v>0</v>
       </c>
       <c r="K52">
@@ -3701,7 +4071,7 @@
         <f>K52/$K$56*100</f>
         <v>46.132971506105832</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="7">
         <v>0</v>
       </c>
       <c r="O52">
@@ -3712,7 +4082,7 @@
         <f>O52/$O$56*100</f>
         <v>35.256410256410255</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="7">
         <v>0</v>
       </c>
       <c r="S52">
@@ -3723,7 +4093,7 @@
         <f>S52/$S$56*100</f>
         <v>41.42011834319527</v>
       </c>
-      <c r="V52">
+      <c r="V52" s="7">
         <v>0</v>
       </c>
       <c r="W52">
@@ -3736,7 +4106,7 @@
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B53">
+      <c r="B53" s="7">
         <v>1</v>
       </c>
       <c r="C53">
@@ -3747,7 +4117,7 @@
         <f t="shared" ref="D53:D56" si="23">C53/$C$56*100</f>
         <v>28.662420382165603</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="5">
         <v>1</v>
       </c>
       <c r="G53">
@@ -3758,7 +4128,7 @@
         <f t="shared" ref="H53:H56" si="25">G53/$G$56*100</f>
         <v>12.751677852348994</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="7">
         <v>1</v>
       </c>
       <c r="K53">
@@ -3769,7 +4139,7 @@
         <f t="shared" ref="L53:L56" si="27">K53/$K$56*100</f>
         <v>18.860244233378562</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="7">
         <v>1</v>
       </c>
       <c r="O53">
@@ -3780,7 +4150,7 @@
         <f t="shared" ref="P53:P56" si="29">O53/$O$56*100</f>
         <v>23.717948717948715</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="7">
         <v>1</v>
       </c>
       <c r="S53">
@@ -3791,7 +4161,7 @@
         <f t="shared" ref="T53:T56" si="31">S53/$S$56*100</f>
         <v>21.597633136094675</v>
       </c>
-      <c r="V53">
+      <c r="V53" s="7">
         <v>1</v>
       </c>
       <c r="W53">
@@ -3804,7 +4174,7 @@
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B54">
+      <c r="B54" s="7">
         <v>2</v>
       </c>
       <c r="C54">
@@ -3815,7 +4185,7 @@
         <f t="shared" si="23"/>
         <v>16.13588110403397</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="5">
         <v>2</v>
       </c>
       <c r="G54">
@@ -3826,7 +4196,7 @@
         <f t="shared" si="25"/>
         <v>27.516778523489933</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="7">
         <v>2</v>
       </c>
       <c r="K54">
@@ -3837,7 +4207,7 @@
         <f t="shared" si="27"/>
         <v>20.624151967435552</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="7">
         <v>2</v>
       </c>
       <c r="O54">
@@ -3848,7 +4218,7 @@
         <f t="shared" si="29"/>
         <v>17.435897435897434</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="7">
         <v>2</v>
       </c>
       <c r="S54">
@@ -3859,7 +4229,7 @@
         <f t="shared" si="31"/>
         <v>16.568047337278109</v>
       </c>
-      <c r="V54">
+      <c r="V54" s="7">
         <v>2</v>
       </c>
       <c r="W54">
@@ -3872,7 +4242,7 @@
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B55">
+      <c r="B55" s="7">
         <v>3</v>
       </c>
       <c r="C55">
@@ -3883,7 +4253,7 @@
         <f t="shared" si="23"/>
         <v>17.197452229299362</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="5">
         <v>3</v>
       </c>
       <c r="G55">
@@ -3894,7 +4264,7 @@
         <f t="shared" si="25"/>
         <v>8.724832214765101</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="7">
         <v>3</v>
       </c>
       <c r="K55">
@@ -3905,7 +4275,7 @@
         <f t="shared" si="27"/>
         <v>14.382632293080055</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="7">
         <v>3</v>
       </c>
       <c r="O55">
@@ -3916,7 +4286,7 @@
         <f t="shared" si="29"/>
         <v>23.589743589743588</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="7">
         <v>3</v>
       </c>
       <c r="S55">
@@ -3927,7 +4297,7 @@
         <f t="shared" si="31"/>
         <v>20.414201183431953</v>
       </c>
-      <c r="V55">
+      <c r="V55" s="7">
         <v>3</v>
       </c>
       <c r="W55">
@@ -3990,18 +4360,63 @@
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X60" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B61">
+      <c r="B61" s="7">
         <v>0</v>
       </c>
       <c r="C61">
@@ -4012,9 +4427,54 @@
         <f>C61/$C$65*100</f>
         <v>39.196806012212306</v>
       </c>
+      <c r="F61" s="7">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>655</v>
+      </c>
+      <c r="H61">
+        <v>44.955387783115988</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>411</v>
+      </c>
+      <c r="L61">
+        <v>39.595375722543352</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>375</v>
+      </c>
+      <c r="P61">
+        <v>33.814247069431921</v>
+      </c>
+      <c r="R61" s="7">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>150</v>
+      </c>
+      <c r="T61">
+        <v>31.578947368421051</v>
+      </c>
+      <c r="V61" s="7">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>78</v>
+      </c>
+      <c r="X61">
+        <v>43.575418994413404</v>
+      </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B62">
+      <c r="B62" s="7">
         <v>1</v>
       </c>
       <c r="C62">
@@ -4025,9 +4485,54 @@
         <f t="shared" ref="D62:D65" si="35">C62/$C$65*100</f>
         <v>22.451855331141381</v>
       </c>
+      <c r="F62" s="7">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>304</v>
+      </c>
+      <c r="H62">
+        <v>20.864790665751546</v>
+      </c>
+      <c r="J62" s="7">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>230</v>
+      </c>
+      <c r="L62">
+        <v>22.157996146435451</v>
+      </c>
+      <c r="N62" s="7">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>259</v>
+      </c>
+      <c r="P62">
+        <v>23.354373309287645</v>
+      </c>
+      <c r="R62" s="7">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>120</v>
+      </c>
+      <c r="T62">
+        <v>25.263157894736842</v>
+      </c>
+      <c r="V62" s="7">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <v>43</v>
+      </c>
+      <c r="X62">
+        <v>24.022346368715084</v>
+      </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B63">
+      <c r="B63" s="7">
         <v>2</v>
       </c>
       <c r="C63">
@@ -4038,9 +4543,54 @@
         <f t="shared" si="35"/>
         <v>18.482855800845467</v>
       </c>
+      <c r="F63" s="7">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>302</v>
+      </c>
+      <c r="H63">
+        <v>20.727522306108444</v>
+      </c>
+      <c r="J63" s="7">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>179</v>
+      </c>
+      <c r="L63">
+        <v>17.24470134874759</v>
+      </c>
+      <c r="N63" s="7">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>202</v>
+      </c>
+      <c r="P63">
+        <v>18.214607754733994</v>
+      </c>
+      <c r="R63" s="7">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>73</v>
+      </c>
+      <c r="T63">
+        <v>15.368421052631579</v>
+      </c>
+      <c r="V63" s="7">
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <v>31</v>
+      </c>
+      <c r="X63">
+        <v>17.318435754189945</v>
+      </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B64">
+      <c r="B64" s="7">
         <v>3</v>
       </c>
       <c r="C64">
@@ -4051,14 +4601,3105 @@
         <f t="shared" si="35"/>
         <v>19.868482855800845</v>
       </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="F64" s="7">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>196</v>
+      </c>
+      <c r="H64">
+        <v>13.452299245024021</v>
+      </c>
+      <c r="J64" s="7">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>218</v>
+      </c>
+      <c r="L64">
+        <v>21.001926782273603</v>
+      </c>
+      <c r="N64" s="7">
+        <v>3</v>
+      </c>
+      <c r="O64">
+        <v>273</v>
+      </c>
+      <c r="P64">
+        <v>24.61677186654644</v>
+      </c>
+      <c r="R64" s="7">
+        <v>3</v>
+      </c>
+      <c r="S64">
+        <v>132</v>
+      </c>
+      <c r="T64">
+        <v>27.789473684210524</v>
+      </c>
+      <c r="V64" s="7">
+        <v>3</v>
+      </c>
+      <c r="W64">
+        <v>27</v>
+      </c>
+      <c r="X64">
+        <v>15.083798882681565</v>
+      </c>
+    </row>
+    <row r="65" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C65">
         <f t="shared" si="34"/>
         <v>4258</v>
       </c>
       <c r="D65">
         <f t="shared" si="35"/>
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>1457</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="K65">
+        <v>1038</v>
+      </c>
+      <c r="L65">
+        <v>100</v>
+      </c>
+      <c r="O65">
+        <v>1109</v>
+      </c>
+      <c r="P65">
+        <v>100</v>
+      </c>
+      <c r="S65">
+        <v>475</v>
+      </c>
+      <c r="T65">
+        <v>100</v>
+      </c>
+      <c r="W65">
+        <v>179</v>
+      </c>
+      <c r="X65">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5BD43A-606A-44D1-B8DE-8471DD4CA647}">
+  <dimension ref="A1:X79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V2" activeCellId="5" sqref="B2 F2 J2 N2 R2 V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.88671875" customWidth="1"/>
+    <col min="20" max="20" width="5" customWidth="1"/>
+    <col min="22" max="22" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>135</v>
+      </c>
+      <c r="D3">
+        <f>C3/$C$9*100</f>
+        <v>28.784648187633259</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>38</v>
+      </c>
+      <c r="H3">
+        <f>G3/$G$9*100</f>
+        <v>12.751677852348994</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>120</v>
+      </c>
+      <c r="L3">
+        <f>K3/$K$9*100</f>
+        <v>19.047619047619047</v>
+      </c>
+      <c r="N3" s="17">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>O3/$O$9*100</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="11">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>11</v>
+      </c>
+      <c r="T3">
+        <f>S3/$S$9*100</f>
+        <v>19.298245614035086</v>
+      </c>
+      <c r="V3" s="17">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>C3+G3+K3+O3+S3</f>
+        <v>304</v>
+      </c>
+      <c r="X3">
+        <f>W3/$W$9*100</f>
+        <v>20.864790665751546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>81</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D9" si="0">C4/$C$9*100</f>
+        <v>17.270788912579956</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H9" si="1">G4/$G$9*100</f>
+        <v>8.724832214765101</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L9" si="2">K4/$K$9*100</f>
+        <v>12.698412698412698</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P9" si="3">O4/$O$9*100</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>9</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T9" si="4">S4/$S$9*100</f>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="V4" s="7">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W9" si="5">C4+G4+K4+O4+S4</f>
+        <v>196</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X9" si="6">W4/$W$9*100</f>
+        <v>13.452299245024021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>107</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>22.81449893390192</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>78</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>26.174496644295303</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>149</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>23.650793650793648</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>11</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>19.298245614035086</v>
+      </c>
+      <c r="V5" s="7">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="5"/>
+        <v>346</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="6"/>
+        <v>23.747426218256692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>77</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>25.838926174496645</v>
+      </c>
+      <c r="J6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>125</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>19.841269841269842</v>
+      </c>
+      <c r="N6" s="5">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="R6" s="5">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>9</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="V6" s="7">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="5"/>
+        <v>279</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="6"/>
+        <v>19.148936170212767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>15.13859275053305</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>74</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>24.832214765100673</v>
+      </c>
+      <c r="J7" s="5">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>148</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>23.49206349206349</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>16</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>28.07017543859649</v>
+      </c>
+      <c r="V7" s="7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="5"/>
+        <v>309</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>21.2079615648593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.7057569296375266</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1.6778523489932886</v>
+      </c>
+      <c r="J8" s="5">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>1.2698412698412698</v>
+      </c>
+      <c r="N8" s="5">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="R8" s="5">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="4"/>
+        <v>1.7543859649122806</v>
+      </c>
+      <c r="V8" s="7">
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="6"/>
+        <v>1.5785861358956761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
+        <f>SUM(C3:C8)</f>
+        <v>469</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G9" s="1">
+        <f>SUM(G3:G8)</f>
+        <v>298</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K9" s="1">
+        <f>SUM(K3:K8)</f>
+        <v>630</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O9" s="1">
+        <f>SUM(O3:O8)</f>
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S9" s="1">
+        <f>SUM(S3:S8)</f>
+        <v>57</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="5"/>
+        <v>1457</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X14" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="17">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f>G15/$G$21*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>160</v>
+      </c>
+      <c r="L15">
+        <f>K15/$K$21*100</f>
+        <v>22.377622377622377</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>69</v>
+      </c>
+      <c r="P15">
+        <f>O15/$O$21*100</f>
+        <v>21.904761904761905</v>
+      </c>
+      <c r="V15" s="17">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f>C15+G15+K15+O15</f>
+        <v>230</v>
+      </c>
+      <c r="X15">
+        <f>W15/$W$21*100</f>
+        <v>22.157996146435451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H21" si="7">G16/$G$21*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>149</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:L21" si="8">K16/$K$21*100</f>
+        <v>20.83916083916084</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>68</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ref="P16:P21" si="9">O16/$O$21*100</f>
+        <v>21.587301587301589</v>
+      </c>
+      <c r="V16" s="7">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <f t="shared" ref="W16:W21" si="10">C16+G16+K16+O16</f>
+        <v>218</v>
+      </c>
+      <c r="X16">
+        <f t="shared" ref="X16:X21" si="11">W16/$W$21*100</f>
+        <v>21.001926782273603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J17" s="5">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>155</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="8"/>
+        <v>21.678321678321677</v>
+      </c>
+      <c r="N17" s="5">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>65</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="9"/>
+        <v>20.634920634920633</v>
+      </c>
+      <c r="V17" s="7">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="10"/>
+        <v>221</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="11"/>
+        <v>21.290944123314066</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J18" s="5">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>108</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="8"/>
+        <v>15.104895104895105</v>
+      </c>
+      <c r="N18" s="5">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>45</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="9"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="V18" s="7">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="10"/>
+        <v>155</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="11"/>
+        <v>14.932562620423893</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J19" s="5">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>125</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="8"/>
+        <v>17.482517482517483</v>
+      </c>
+      <c r="N19" s="5">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>63</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="V19" s="7">
+        <v>4</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="10"/>
+        <v>190</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="11"/>
+        <v>18.304431599229286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="F20" s="5">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>18</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="8"/>
+        <v>2.5174825174825175</v>
+      </c>
+      <c r="N20" s="5">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="9"/>
+        <v>1.5873015873015872</v>
+      </c>
+      <c r="V20" s="7">
+        <v>5</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="11"/>
+        <v>2.3121387283236992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="G21" s="1">
+        <f>SUM(G15:G20)</f>
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="K21" s="1">
+        <f>SUM(K15:K20)</f>
+        <v>715</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="O21" s="1">
+        <f>SUM(O15:O20)</f>
+        <v>315</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="10"/>
+        <v>1038</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V26" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X26" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B27" s="17">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>17</v>
+      </c>
+      <c r="H27">
+        <f>G27/$G$33*100</f>
+        <v>17.171717171717169</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>241</v>
+      </c>
+      <c r="L27">
+        <f>K27/$K$33*100</f>
+        <v>24.051896207584829</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <f>O27/$O$33*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="V27" s="17">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f>C27+G27+K27+O27</f>
+        <v>259</v>
+      </c>
+      <c r="X27">
+        <f>W27/$W$33*100</f>
+        <v>23.354373309287645</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>25</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:H33" si="12">G28/$G$33*100</f>
+        <v>25.252525252525253</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>248</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ref="L28:L33" si="13">K28/$K$33*100</f>
+        <v>24.750499001996008</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" ref="P28:P33" si="14">O28/$O$33*100</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="7">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <f t="shared" ref="W28:W33" si="15">C28+G28+K28+O28</f>
+        <v>273</v>
+      </c>
+      <c r="X28">
+        <f t="shared" ref="X28:X33" si="16">W28/$W$33*100</f>
+        <v>24.61677186654644</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B29" s="7">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="12"/>
+        <v>23.232323232323232</v>
+      </c>
+      <c r="J29" s="5">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>183</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="13"/>
+        <v>18.263473053892216</v>
+      </c>
+      <c r="N29" s="5">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="14"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="V29" s="7">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="15"/>
+        <v>209</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="16"/>
+        <v>18.845807033363389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B30" s="7">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>15</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="12"/>
+        <v>15.151515151515152</v>
+      </c>
+      <c r="J30" s="5">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>163</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="13"/>
+        <v>16.267465069860279</v>
+      </c>
+      <c r="N30" s="5">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="14"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="V30" s="7">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="15"/>
+        <v>179</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="16"/>
+        <v>16.140667267808837</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B31" s="5">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="F31" s="5">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>17</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="12"/>
+        <v>17.171717171717169</v>
+      </c>
+      <c r="J31" s="5">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>147</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="13"/>
+        <v>14.67065868263473</v>
+      </c>
+      <c r="N31" s="5">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="14"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="V31" s="7">
+        <v>4</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="15"/>
+        <v>166</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="16"/>
+        <v>14.968440036068531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="7">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="12"/>
+        <v>2.0202020202020203</v>
+      </c>
+      <c r="J32" s="5">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>20</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="13"/>
+        <v>1.996007984031936</v>
+      </c>
+      <c r="N32" s="5">
+        <v>5</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="14"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="V32" s="7">
+        <v>5</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="16"/>
+        <v>2.0739404869251574</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="G33" s="1">
+        <f>SUM(G27:G32)</f>
+        <v>99</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="K33" s="1">
+        <f>SUM(K27:K32)</f>
+        <v>1002</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="O33" s="1">
+        <f>SUM(O27:O32)</f>
+        <v>7</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="15"/>
+        <v>1109</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B38" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V38" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="W38" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X38" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B39" s="11">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>113</v>
+      </c>
+      <c r="H39">
+        <f>G39/$G$45*100</f>
+        <v>24.780701754385966</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <f>K39/$K$45*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="N39" s="11">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>4</v>
+      </c>
+      <c r="P39">
+        <f>O39/$O$45*100</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="V39" s="17">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f>C39+G39+K39+O39</f>
+        <v>120</v>
+      </c>
+      <c r="X39">
+        <f>W39/$W$45*100</f>
+        <v>25.263157894736842</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B40" s="7">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>129</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ref="H40:H45" si="17">G40/$G$45*100</f>
+        <v>28.289473684210524</v>
+      </c>
+      <c r="J40" s="7">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ref="L40:L45" si="18">K40/$K$45*100</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="5">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <f t="shared" ref="P40:P45" si="19">O40/$O$45*100</f>
+        <v>20</v>
+      </c>
+      <c r="V40" s="7">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <f t="shared" ref="W40:W45" si="20">C40+G40+K40+O40</f>
+        <v>132</v>
+      </c>
+      <c r="X40">
+        <f t="shared" ref="X40:X45" si="21">W40/$W$45*100</f>
+        <v>27.789473684210524</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B41" s="7">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>81</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="17"/>
+        <v>17.763157894736842</v>
+      </c>
+      <c r="J41" s="5">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="18"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N41" s="5">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="19"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="V41" s="7">
+        <v>2</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="20"/>
+        <v>84</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="21"/>
+        <v>17.684210526315788</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B42" s="7">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>64</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="17"/>
+        <v>14.035087719298245</v>
+      </c>
+      <c r="J42" s="7">
+        <v>3</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="5">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="19"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="V42" s="7">
+        <v>3</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="20"/>
+        <v>65</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="21"/>
+        <v>13.684210526315791</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B43" s="7">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>62</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="17"/>
+        <v>13.596491228070176</v>
+      </c>
+      <c r="J43" s="5">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="5">
+        <v>4</v>
+      </c>
+      <c r="O43">
+        <v>4</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="19"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="V43" s="7">
+        <v>4</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="20"/>
+        <v>66</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="21"/>
+        <v>13.894736842105262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B44" s="7">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="17"/>
+        <v>1.5350877192982455</v>
+      </c>
+      <c r="J44" s="7">
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="5">
+        <v>5</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="19"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="V44" s="7">
+        <v>5</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="21"/>
+        <v>1.6842105263157894</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="G45" s="1">
+        <f>SUM(G39:G44)</f>
+        <v>456</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="O45" s="1">
+        <f>SUM(O39:O44)</f>
+        <v>15</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="20"/>
+        <v>475</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B50" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V50" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="W50" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X50" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B51" s="11">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>41</v>
+      </c>
+      <c r="D51">
+        <f>C51/$C$57*100</f>
+        <v>25</v>
+      </c>
+      <c r="F51" s="11">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <f>G51/$G$57*100</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="J51" s="11">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>50</v>
+      </c>
+      <c r="V51" s="17">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <f>C51+G51+K51</f>
+        <v>43</v>
+      </c>
+      <c r="X51">
+        <f>W51/$W$57*100</f>
+        <v>24.022346368715084</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>26</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52:D57" si="22">C52/$C$57*100</f>
+        <v>15.853658536585366</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ref="H52:H57" si="23">G52/$G$57*100</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="J52" s="7">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="V52" s="7">
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <f t="shared" ref="W52:W57" si="24">C52+G52+K52</f>
+        <v>27</v>
+      </c>
+      <c r="X52">
+        <f t="shared" ref="X52:X57" si="25">W52/$W$57*100</f>
+        <v>15.083798882681565</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B53" s="5">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>35</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="22"/>
+        <v>21.341463414634145</v>
+      </c>
+      <c r="F53" s="5">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="23"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="J53" s="7">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="V53" s="7">
+        <v>2</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="24"/>
+        <v>37</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="25"/>
+        <v>20.670391061452513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B54" s="5">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>23</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="22"/>
+        <v>14.02439024390244</v>
+      </c>
+      <c r="F54" s="5">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="23"/>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="J54" s="5">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>50</v>
+      </c>
+      <c r="V54" s="7">
+        <v>3</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="25"/>
+        <v>15.64245810055866</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B55" s="5">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>36</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="22"/>
+        <v>21.951219512195124</v>
+      </c>
+      <c r="F55" s="5">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="23"/>
+        <v>38.461538461538467</v>
+      </c>
+      <c r="J55" s="7">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="V55" s="7">
+        <v>4</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="24"/>
+        <v>41</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="25"/>
+        <v>22.905027932960895</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B56" s="5">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="22"/>
+        <v>1.8292682926829267</v>
+      </c>
+      <c r="F56" s="5">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="V56" s="7">
+        <v>5</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="25"/>
+        <v>1.6759776536312849</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C57" s="1">
+        <f>SUM(C51:C56)</f>
+        <v>164</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="G57" s="1">
+        <f>SUM(G51:G56)</f>
+        <v>13</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="23"/>
+        <v>100</v>
+      </c>
+      <c r="K57" s="1">
+        <f>SUM(K51:K56)</f>
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>100</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="24"/>
+        <v>179</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R63" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S63" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W63" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X63" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B64" s="7">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <f>C3+C15+C27</f>
+        <v>135</v>
+      </c>
+      <c r="D64">
+        <f>C64/$C$70*100</f>
+        <v>28.662420382165603</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>38</v>
+      </c>
+      <c r="H64">
+        <f>G64/$G$9*100</f>
+        <v>12.751677852348994</v>
+      </c>
+      <c r="J64" s="7">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <f>K3+G15+G27+C39</f>
+        <v>139</v>
+      </c>
+      <c r="L64">
+        <f>K64/$K$70*100</f>
+        <v>18.860244233378562</v>
+      </c>
+      <c r="N64" s="7">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <f>O3+K15+K27+G39+C51</f>
+        <v>555</v>
+      </c>
+      <c r="P64">
+        <f>O64/$O$70*100</f>
+        <v>23.717948717948715</v>
+      </c>
+      <c r="R64" s="7">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <f>O15+O27+K39+G51</f>
+        <v>73</v>
+      </c>
+      <c r="T64">
+        <f>S64/$S$70*100</f>
+        <v>21.597633136094675</v>
+      </c>
+      <c r="V64" s="7">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <f>S3+O39+K51</f>
+        <v>16</v>
+      </c>
+      <c r="X64">
+        <f>W64/$W$70*100</f>
+        <v>21.621621621621621</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B65" s="7">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ref="C65:C69" si="26">C4+C16+C28</f>
+        <v>81</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ref="D65:D70" si="27">C65/$C$70*100</f>
+        <v>17.197452229299362</v>
+      </c>
+      <c r="F65" s="5">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>26</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ref="H65:H70" si="28">G65/$G$9*100</f>
+        <v>8.724832214765101</v>
+      </c>
+      <c r="J65" s="7">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ref="K65:K70" si="29">K4+G16+G28+C40</f>
+        <v>106</v>
+      </c>
+      <c r="L65">
+        <f t="shared" ref="L65:L70" si="30">K65/$K$70*100</f>
+        <v>14.382632293080055</v>
+      </c>
+      <c r="N65" s="7">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <f t="shared" ref="O65:O69" si="31">O4+K16+K28+G40+C52</f>
+        <v>552</v>
+      </c>
+      <c r="P65">
+        <f t="shared" ref="P65:P70" si="32">O65/$O$70*100</f>
+        <v>23.589743589743588</v>
+      </c>
+      <c r="R65" s="7">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <f t="shared" ref="S65:S70" si="33">O16+O28+K40+G52</f>
+        <v>69</v>
+      </c>
+      <c r="T65">
+        <f t="shared" ref="T65:T70" si="34">S65/$S$70*100</f>
+        <v>20.414201183431953</v>
+      </c>
+      <c r="V65" s="7">
+        <v>1</v>
+      </c>
+      <c r="W65">
+        <f t="shared" ref="W65:W70" si="35">S4+O40+K52</f>
+        <v>12</v>
+      </c>
+      <c r="X65">
+        <f t="shared" ref="X65:X70" si="36">W65/$W$70*100</f>
+        <v>16.216216216216218</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B66" s="7">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="26"/>
+        <v>107</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="27"/>
+        <v>22.717622080679405</v>
+      </c>
+      <c r="F66" s="5">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>78</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="28"/>
+        <v>26.174496644295303</v>
+      </c>
+      <c r="J66" s="7">
+        <v>2</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="29"/>
+        <v>173</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="30"/>
+        <v>23.473541383989144</v>
+      </c>
+      <c r="N66" s="7">
+        <v>2</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="31"/>
+        <v>455</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="32"/>
+        <v>19.444444444444446</v>
+      </c>
+      <c r="R66" s="7">
+        <v>2</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="33"/>
+        <v>71</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="34"/>
+        <v>21.005917159763314</v>
+      </c>
+      <c r="V66" s="7">
+        <v>2</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="35"/>
+        <v>13</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="36"/>
+        <v>17.567567567567568</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B67" s="7">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="26"/>
+        <v>67</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="27"/>
+        <v>14.225053078556263</v>
+      </c>
+      <c r="F67" s="5">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>77</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="28"/>
+        <v>25.838926174496645</v>
+      </c>
+      <c r="J67" s="7">
+        <v>3</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="29"/>
+        <v>142</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="30"/>
+        <v>19.26729986431479</v>
+      </c>
+      <c r="N67" s="7">
+        <v>3</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="31"/>
+        <v>359</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="32"/>
+        <v>15.341880341880342</v>
+      </c>
+      <c r="R67" s="7">
+        <v>3</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="33"/>
+        <v>50</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="34"/>
+        <v>14.792899408284024</v>
+      </c>
+      <c r="V67" s="7">
+        <v>3</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="35"/>
+        <v>11</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="36"/>
+        <v>14.864864864864865</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B68" s="7">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="26"/>
+        <v>72</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="27"/>
+        <v>15.286624203821656</v>
+      </c>
+      <c r="F68" s="5">
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>74</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="28"/>
+        <v>24.832214765100673</v>
+      </c>
+      <c r="J68" s="7">
+        <v>4</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="29"/>
+        <v>167</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="30"/>
+        <v>22.659430122116689</v>
+      </c>
+      <c r="N68" s="7">
+        <v>4</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="31"/>
+        <v>370</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="32"/>
+        <v>15.811965811965811</v>
+      </c>
+      <c r="R68" s="7">
+        <v>4</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="33"/>
+        <v>69</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="34"/>
+        <v>20.414201183431953</v>
+      </c>
+      <c r="V68" s="7">
+        <v>4</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="35"/>
+        <v>20</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="36"/>
+        <v>27.027027027027028</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B69" s="7">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="27"/>
+        <v>1.910828025477707</v>
+      </c>
+      <c r="F69" s="5">
+        <v>5</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="28"/>
+        <v>1.6778523489932886</v>
+      </c>
+      <c r="J69" s="7">
+        <v>5</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="30"/>
+        <v>1.3568521031207599</v>
+      </c>
+      <c r="N69" s="7">
+        <v>5</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="32"/>
+        <v>2.0940170940170937</v>
+      </c>
+      <c r="R69" s="7">
+        <v>5</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="33"/>
+        <v>6</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="34"/>
+        <v>1.7751479289940828</v>
+      </c>
+      <c r="V69" s="7">
+        <v>5</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="36"/>
+        <v>2.7027027027027026</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <f>C9+C21+C33</f>
+        <v>471</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="G70" s="1">
+        <f>SUM(G64:G69)</f>
+        <v>298</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="29"/>
+        <v>737</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="O70">
+        <f>O9+K21+K33+G45+C57</f>
+        <v>2340</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="32"/>
+        <v>100</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="33"/>
+        <v>338</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="34"/>
+        <v>100</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="35"/>
+        <v>74</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="36"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B72" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S72" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W72" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X72" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B73" s="7">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <f>C64+G64+K64+O64+S64+W64</f>
+        <v>956</v>
+      </c>
+      <c r="D73">
+        <f>C73/$C$79*100</f>
+        <v>22.451855331141381</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>304</v>
+      </c>
+      <c r="H73">
+        <v>20.864790665751546</v>
+      </c>
+      <c r="J73" s="7">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>230</v>
+      </c>
+      <c r="L73">
+        <v>22.157996146435451</v>
+      </c>
+      <c r="N73" s="7">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>259</v>
+      </c>
+      <c r="P73">
+        <v>23.354373309287645</v>
+      </c>
+      <c r="R73" s="7">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>120</v>
+      </c>
+      <c r="T73">
+        <v>25.263157894736842</v>
+      </c>
+      <c r="V73" s="7">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>43</v>
+      </c>
+      <c r="X73">
+        <v>24.022346368715084</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B74" s="7">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ref="C74:C79" si="37">C65+G65+K65+O65+S65+W65</f>
+        <v>846</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ref="D74:D79" si="38">C74/$C$79*100</f>
+        <v>19.868482855800845</v>
+      </c>
+      <c r="F74" s="7">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>196</v>
+      </c>
+      <c r="H74">
+        <v>13.452299245024021</v>
+      </c>
+      <c r="J74" s="7">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>218</v>
+      </c>
+      <c r="L74">
+        <v>21.001926782273603</v>
+      </c>
+      <c r="N74" s="7">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>273</v>
+      </c>
+      <c r="P74">
+        <v>24.61677186654644</v>
+      </c>
+      <c r="R74" s="7">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>132</v>
+      </c>
+      <c r="T74">
+        <v>27.789473684210524</v>
+      </c>
+      <c r="V74" s="7">
+        <v>1</v>
+      </c>
+      <c r="W74">
+        <v>27</v>
+      </c>
+      <c r="X74">
+        <v>15.083798882681565</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B75" s="7">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="37"/>
+        <v>897</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="38"/>
+        <v>21.066228276186003</v>
+      </c>
+      <c r="F75" s="7">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>346</v>
+      </c>
+      <c r="H75">
+        <v>23.747426218256692</v>
+      </c>
+      <c r="J75" s="7">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>221</v>
+      </c>
+      <c r="L75">
+        <v>21.290944123314066</v>
+      </c>
+      <c r="N75" s="7">
+        <v>2</v>
+      </c>
+      <c r="O75">
+        <v>209</v>
+      </c>
+      <c r="P75">
+        <v>18.845807033363389</v>
+      </c>
+      <c r="R75" s="7">
+        <v>2</v>
+      </c>
+      <c r="S75">
+        <v>84</v>
+      </c>
+      <c r="T75">
+        <v>17.684210526315788</v>
+      </c>
+      <c r="V75" s="7">
+        <v>2</v>
+      </c>
+      <c r="W75">
+        <v>37</v>
+      </c>
+      <c r="X75">
+        <v>20.670391061452513</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B76" s="7">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="37"/>
+        <v>706</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="38"/>
+        <v>16.580554250821983</v>
+      </c>
+      <c r="F76" s="7">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>279</v>
+      </c>
+      <c r="H76">
+        <v>19.148936170212767</v>
+      </c>
+      <c r="J76" s="7">
+        <v>3</v>
+      </c>
+      <c r="K76">
+        <v>155</v>
+      </c>
+      <c r="L76">
+        <v>14.932562620423893</v>
+      </c>
+      <c r="N76" s="7">
+        <v>3</v>
+      </c>
+      <c r="O76">
+        <v>179</v>
+      </c>
+      <c r="P76">
+        <v>16.140667267808837</v>
+      </c>
+      <c r="R76" s="7">
+        <v>3</v>
+      </c>
+      <c r="S76">
+        <v>65</v>
+      </c>
+      <c r="T76">
+        <v>13.684210526315791</v>
+      </c>
+      <c r="V76" s="7">
+        <v>3</v>
+      </c>
+      <c r="W76">
+        <v>28</v>
+      </c>
+      <c r="X76">
+        <v>15.64245810055866</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B77" s="7">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="37"/>
+        <v>772</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="38"/>
+        <v>18.130577736026304</v>
+      </c>
+      <c r="F77" s="7">
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <v>309</v>
+      </c>
+      <c r="H77">
+        <v>21.2079615648593</v>
+      </c>
+      <c r="J77" s="7">
+        <v>4</v>
+      </c>
+      <c r="K77">
+        <v>190</v>
+      </c>
+      <c r="L77">
+        <v>18.304431599229286</v>
+      </c>
+      <c r="N77" s="7">
+        <v>4</v>
+      </c>
+      <c r="O77">
+        <v>166</v>
+      </c>
+      <c r="P77">
+        <v>14.968440036068531</v>
+      </c>
+      <c r="R77" s="7">
+        <v>4</v>
+      </c>
+      <c r="S77">
+        <v>66</v>
+      </c>
+      <c r="T77">
+        <v>13.894736842105262</v>
+      </c>
+      <c r="V77" s="7">
+        <v>4</v>
+      </c>
+      <c r="W77">
+        <v>41</v>
+      </c>
+      <c r="X77">
+        <v>22.905027932960895</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B78" s="7">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="37"/>
+        <v>81</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="38"/>
+        <v>1.902301550023485</v>
+      </c>
+      <c r="F78" s="7">
+        <v>5</v>
+      </c>
+      <c r="G78">
+        <v>23</v>
+      </c>
+      <c r="H78">
+        <v>1.5785861358956761</v>
+      </c>
+      <c r="J78" s="7">
+        <v>5</v>
+      </c>
+      <c r="K78">
+        <v>24</v>
+      </c>
+      <c r="L78">
+        <v>2.3121387283236992</v>
+      </c>
+      <c r="N78" s="7">
+        <v>5</v>
+      </c>
+      <c r="O78">
+        <v>23</v>
+      </c>
+      <c r="P78">
+        <v>2.0739404869251574</v>
+      </c>
+      <c r="R78" s="7">
+        <v>5</v>
+      </c>
+      <c r="S78">
+        <v>8</v>
+      </c>
+      <c r="T78">
+        <v>1.6842105263157894</v>
+      </c>
+      <c r="V78" s="7">
+        <v>5</v>
+      </c>
+      <c r="W78">
+        <v>3</v>
+      </c>
+      <c r="X78">
+        <v>1.6759776536312849</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <f t="shared" si="37"/>
+        <v>4258</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="G79">
+        <v>1457</v>
+      </c>
+      <c r="H79">
+        <v>100</v>
+      </c>
+      <c r="K79">
+        <v>1038</v>
+      </c>
+      <c r="L79">
+        <v>100</v>
+      </c>
+      <c r="O79">
+        <v>1109</v>
+      </c>
+      <c r="P79">
+        <v>100</v>
+      </c>
+      <c r="S79">
+        <v>475</v>
+      </c>
+      <c r="T79">
+        <v>100</v>
+      </c>
+      <c r="W79">
+        <v>179</v>
+      </c>
+      <c r="X79">
         <v>100</v>
       </c>
     </row>

--- a/_CLUSTER/groups_time_area/1_groups_area_time.xlsx
+++ b/_CLUSTER/groups_time_area/1_groups_area_time.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_CLUSTER\groups_time_area\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4715B80-E79A-41DF-A4D8-6E091B22CCDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6EE89F-6F2D-4087-AAC3-7C7AEC0B9FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{BCF02780-D300-43E8-921C-29E8CAC5991E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BCF02780-D300-43E8-921C-29E8CAC5991E}"/>
   </bookViews>
   <sheets>
-    <sheet name="3_groups" sheetId="1" r:id="rId1"/>
-    <sheet name="4_groups" sheetId="3" r:id="rId2"/>
-    <sheet name="6_groups" sheetId="4" r:id="rId3"/>
+    <sheet name="2_groups" sheetId="5" r:id="rId1"/>
+    <sheet name="3_groups" sheetId="1" r:id="rId2"/>
+    <sheet name="4_groups" sheetId="3" r:id="rId3"/>
+    <sheet name="6_groups" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="55">
   <si>
     <t>Area1</t>
   </si>
@@ -186,6 +187,21 @@
   <si>
     <t>Area5_tot</t>
   </si>
+  <si>
+    <t>area1</t>
+  </si>
+  <si>
+    <t>area2</t>
+  </si>
+  <si>
+    <t>area3</t>
+  </si>
+  <si>
+    <t>Area_J</t>
+  </si>
+  <si>
+    <t>Area4+5</t>
+  </si>
 </sst>
 </file>
 
@@ -305,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -348,6 +364,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -661,11 +680,1513 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E362FAB3-749B-42AE-A5DF-A65E9F55F37B}">
+  <dimension ref="A1:AB50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA52" sqref="AA52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" customWidth="1"/>
+    <col min="16" max="16" width="5.77734375" customWidth="1"/>
+    <col min="18" max="18" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" customWidth="1"/>
+    <col min="20" max="20" width="6.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>253</v>
+      </c>
+      <c r="D3">
+        <f>C3/$C$5*100</f>
+        <v>53.944562899786789</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>234</v>
+      </c>
+      <c r="H3">
+        <f>G3/$G$5*100</f>
+        <v>78.523489932885909</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>430</v>
+      </c>
+      <c r="L3">
+        <f>K3/$K$5*100</f>
+        <v>68.253968253968253</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>37</v>
+      </c>
+      <c r="T3">
+        <f>S3/$S$5*100</f>
+        <v>64.912280701754383</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>C3+G3+K3+O3+S3</f>
+        <v>957</v>
+      </c>
+      <c r="X3">
+        <f>W3/$W$5*100</f>
+        <v>65.682910089224436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>216</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="0">C4/$C$5*100</f>
+        <v>46.055437100213219</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>64</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H5" si="1">G4/$G$5*100</f>
+        <v>21.476510067114095</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>200</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L5" si="2">K4/$K$5*100</f>
+        <v>31.746031746031743</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>20</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T5" si="3">S4/$S$5*100</f>
+        <v>35.087719298245609</v>
+      </c>
+      <c r="V4" s="7">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W5" si="4">C4+G4+K4+O4+S4</f>
+        <v>500</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X5" si="5">W4/$W$5*100</f>
+        <v>34.317089910775564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <f>SUM(C3:C4)</f>
+        <v>469</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G5" s="1">
+        <f>SUM(G3:G4)</f>
+        <v>298</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K5" s="1">
+        <f>SUM(K3:K4)</f>
+        <v>630</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="S5" s="1">
+        <f>SUM(S3:S4)</f>
+        <v>57</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="4"/>
+        <v>1457</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X9" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <f>G10/$G$12*100</f>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>406</v>
+      </c>
+      <c r="L10">
+        <f>K10/$K$12*100</f>
+        <v>56.783216783216787</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>178</v>
+      </c>
+      <c r="P10">
+        <f>O10/$O$12*100</f>
+        <v>56.507936507936506</v>
+      </c>
+      <c r="V10" s="7">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f>C10+G10+K10+O10</f>
+        <v>590</v>
+      </c>
+      <c r="X10">
+        <f>W10/$W$12*100</f>
+        <v>56.840077071290942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H12" si="6">G11/$G$12*100</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>309</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:L12" si="7">K11/$K$12*100</f>
+        <v>43.216783216783213</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>137</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11:P12" si="8">O11/$O$12*100</f>
+        <v>43.492063492063494</v>
+      </c>
+      <c r="V11" s="7">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <f t="shared" ref="W11:W12" si="9">C11+G11+K11+O11</f>
+        <v>448</v>
+      </c>
+      <c r="X11">
+        <f t="shared" ref="X11:X12" si="10">W11/$W$12*100</f>
+        <v>43.159922928709058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K12" s="1">
+        <f>SUM(K10:K11)</f>
+        <v>715</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="O12" s="1">
+        <f>SUM(O10:O11)</f>
+        <v>315</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="9"/>
+        <v>1038</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>57</v>
+      </c>
+      <c r="H17">
+        <f>G17/$G$19*100</f>
+        <v>57.575757575757578</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>513</v>
+      </c>
+      <c r="L17">
+        <f>K17/$K$19*100</f>
+        <v>51.197604790419163</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <f>O17/$O$19*100</f>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="V17" s="7">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f>C17+G17+K17+O17</f>
+        <v>577</v>
+      </c>
+      <c r="X17">
+        <f>W17/$W$19*100</f>
+        <v>52.028854824165919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>42</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H19" si="11">G18/$G$19*100</f>
+        <v>42.424242424242422</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>489</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:L19" si="12">K18/$K$19*100</f>
+        <v>48.802395209580837</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18:P19" si="13">O18/$O$19*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="V18" s="7">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ref="W18:W19" si="14">C18+G18+K18+O18</f>
+        <v>532</v>
+      </c>
+      <c r="X18">
+        <f t="shared" ref="X18:X19" si="15">W18/$W$19*100</f>
+        <v>47.971145175834081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="G19" s="1">
+        <f>SUM(G17:G18)</f>
+        <v>99</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="K19" s="1">
+        <f>SUM(K17:K18)</f>
+        <v>1002</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="O19" s="1">
+        <f>SUM(O17:O18)</f>
+        <v>7</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="14"/>
+        <v>1109</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W24" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X24" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>214</v>
+      </c>
+      <c r="H25">
+        <f>G25/$G$27*100</f>
+        <v>46.929824561403507</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>33.33</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>8</v>
+      </c>
+      <c r="P25">
+        <f>O25/$O$27*100</f>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="V25" s="7">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f>C25+G25+K25+O25</f>
+        <v>223</v>
+      </c>
+      <c r="X25">
+        <f>W25/$W$27*100</f>
+        <v>46.94736842105263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>242</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:H27" si="16">G26/$G$27*100</f>
+        <v>53.070175438596493</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>66.67</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>7</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ref="P26:P27" si="17">O26/$O$27*100</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="V26" s="7">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <f t="shared" ref="W26:W27" si="18">C26+G26+K26+O26</f>
+        <v>252</v>
+      </c>
+      <c r="X26">
+        <f t="shared" ref="X26:X27" si="19">W26/$W$27*100</f>
+        <v>53.05263157894737</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1">
+        <f>SUM(G25:G26)</f>
+        <v>456</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>100</v>
+      </c>
+      <c r="O27" s="1">
+        <f>SUM(O25:O26)</f>
+        <v>15</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="18"/>
+        <v>475</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X32" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>97</v>
+      </c>
+      <c r="D33">
+        <f>C33/$C$35*100</f>
+        <v>59.146341463414629</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>11</v>
+      </c>
+      <c r="H33">
+        <f>G33/$G$35*100</f>
+        <v>84.615384615384613</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>50</v>
+      </c>
+      <c r="V33" s="7">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f>C33+G33+K33</f>
+        <v>109</v>
+      </c>
+      <c r="X33">
+        <f>W33/$W$35*100</f>
+        <v>60.893854748603346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>67</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D35" si="20">C34/$C$35*100</f>
+        <v>40.853658536585364</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H35" si="21">G34/$G$35*100</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>50</v>
+      </c>
+      <c r="V34" s="7">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ref="W34:W35" si="22">C34+G34+K34</f>
+        <v>70</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ref="X34:X35" si="23">W34/$W$35*100</f>
+        <v>39.106145251396647</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C35" s="1">
+        <f>SUM(C33:C34)</f>
+        <v>164</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+      <c r="G35" s="1">
+        <f>SUM(G33:G34)</f>
+        <v>13</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>100</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="22"/>
+        <v>179</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="23"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X40" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B41" s="7">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f>C3+C10+C17</f>
+        <v>255</v>
+      </c>
+      <c r="D41">
+        <f>C41/$C$43*100</f>
+        <v>54.140127388535028</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>234</v>
+      </c>
+      <c r="H41">
+        <f>G41/$G$5*100</f>
+        <v>78.523489932885909</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f>K3+G10+G17+C25</f>
+        <v>492</v>
+      </c>
+      <c r="L41">
+        <f>K41/$K$43*100</f>
+        <v>66.757123473541384</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f>O3+K10+K17+G25+C33</f>
+        <v>1233</v>
+      </c>
+      <c r="P41">
+        <f>O41/$O$43*100</f>
+        <v>52.692307692307693</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f>O10+O17+K25+G33</f>
+        <v>196</v>
+      </c>
+      <c r="T41">
+        <f>S41/$S$43*100</f>
+        <v>57.988165680473372</v>
+      </c>
+      <c r="V41" s="7">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f>S3+O25+K33</f>
+        <v>46</v>
+      </c>
+      <c r="X41">
+        <f>W41/$W$43*100</f>
+        <v>62.162162162162161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B42" s="7">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:C43" si="24">C4+C11+C18</f>
+        <v>216</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:D43" si="25">C42/$C$43*100</f>
+        <v>45.859872611464972</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>64</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ref="H42:H43" si="26">G42/$G$5*100</f>
+        <v>21.476510067114095</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ref="K42:K43" si="27">K4+G11+G18+C26</f>
+        <v>245</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ref="L42:L43" si="28">K42/$K$43*100</f>
+        <v>33.242876526458616</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ref="O42:O43" si="29">O4+K11+K18+G26+C34</f>
+        <v>1107</v>
+      </c>
+      <c r="P42">
+        <f t="shared" ref="P42:P43" si="30">O42/$O$43*100</f>
+        <v>47.307692307692307</v>
+      </c>
+      <c r="R42" s="7">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <f t="shared" ref="S42:S43" si="31">O11+O18+K26+G34</f>
+        <v>142</v>
+      </c>
+      <c r="T42">
+        <f t="shared" ref="T42:T43" si="32">S42/$S$43*100</f>
+        <v>42.011834319526628</v>
+      </c>
+      <c r="V42" s="7">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <f>S4+O26+K34</f>
+        <v>28</v>
+      </c>
+      <c r="X42">
+        <f t="shared" ref="X42:X43" si="33">W42/$W$43*100</f>
+        <v>37.837837837837839</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <f t="shared" si="24"/>
+        <v>471</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="G43" s="1">
+        <f>SUM(G41:G42)</f>
+        <v>298</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="26"/>
+        <v>100</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="27"/>
+        <v>737</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="29"/>
+        <v>2340</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="31"/>
+        <v>338</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="32"/>
+        <v>100</v>
+      </c>
+      <c r="W43">
+        <f>S5+O27+K35</f>
+        <v>74</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="33"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z47" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B48" s="7">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f>G48+K48+O48+S48+W48</f>
+        <v>2456</v>
+      </c>
+      <c r="D48">
+        <f>C48/$C$50*100</f>
+        <v>57.67966181305777</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>957</v>
+      </c>
+      <c r="H48">
+        <v>65.682910089224436</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>590</v>
+      </c>
+      <c r="L48">
+        <v>56.840077071290942</v>
+      </c>
+      <c r="N48" s="7">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>577</v>
+      </c>
+      <c r="P48">
+        <v>52.028854824165919</v>
+      </c>
+      <c r="R48" s="7">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>223</v>
+      </c>
+      <c r="T48">
+        <v>46.94736842105263</v>
+      </c>
+      <c r="V48" s="7">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>109</v>
+      </c>
+      <c r="X48">
+        <v>60.893854748603346</v>
+      </c>
+      <c r="Z48" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <f>S48+W48</f>
+        <v>332</v>
+      </c>
+      <c r="AB48">
+        <f>AA48/$AA$50*100</f>
+        <v>50.764525993883794</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B49" s="7">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:C50" si="34">G49+K49+O49+S49+W49</f>
+        <v>1802</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49:D50" si="35">C49/$C$50*100</f>
+        <v>42.320338186942223</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>500</v>
+      </c>
+      <c r="H49">
+        <v>34.317089910775564</v>
+      </c>
+      <c r="J49" s="7">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>448</v>
+      </c>
+      <c r="L49">
+        <v>43.159922928709058</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>532</v>
+      </c>
+      <c r="P49">
+        <v>47.971145175834081</v>
+      </c>
+      <c r="R49" s="7">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>252</v>
+      </c>
+      <c r="T49">
+        <v>53.05263157894737</v>
+      </c>
+      <c r="V49" s="7">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>70</v>
+      </c>
+      <c r="X49">
+        <v>39.106145251396647</v>
+      </c>
+      <c r="Z49" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" ref="AA49:AA50" si="36">S49+W49</f>
+        <v>322</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" ref="AB49:AB50" si="37">AA49/$AA$50*100</f>
+        <v>49.235474006116206</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <f t="shared" si="34"/>
+        <v>4258</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="35"/>
+        <v>100</v>
+      </c>
+      <c r="G50">
+        <v>1457</v>
+      </c>
+      <c r="H50">
+        <v>100</v>
+      </c>
+      <c r="K50">
+        <v>1038</v>
+      </c>
+      <c r="L50">
+        <v>100</v>
+      </c>
+      <c r="O50">
+        <v>1109</v>
+      </c>
+      <c r="P50">
+        <v>100</v>
+      </c>
+      <c r="S50">
+        <v>475</v>
+      </c>
+      <c r="T50">
+        <v>100</v>
+      </c>
+      <c r="W50">
+        <v>179</v>
+      </c>
+      <c r="X50">
+        <v>100</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="36"/>
+        <v>654</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="37"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5AACF4-39EA-4D0A-ACCC-8AAAEB1F46DD}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C56" activeCellId="36" sqref="C2 G2 K2 O2 S2 W2 S12 O12 K12 G12 C12 C21 G21 K21 O21 S21 S30 O30 K30 G30 C30 C39 G39 K39 O39 C48 G48 K48 O48 S48 W48 W56 S56 O56 K56 G56 C56"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2453,7 +3974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFBD1BB-8849-4487-8552-39BD208832CB}">
   <dimension ref="A1:X65"/>
   <sheetViews>
@@ -4692,11 +6213,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5BD43A-606A-44D1-B8DE-8471DD4CA647}">
   <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V2" activeCellId="5" sqref="B2 F2 J2 N2 R2 V2"/>
     </sheetView>
   </sheetViews>

--- a/_CLUSTER/groups_time_area/1_groups_area_time.xlsx
+++ b/_CLUSTER/groups_time_area/1_groups_area_time.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_CLUSTER\groups_time_area\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6EE89F-6F2D-4087-AAC3-7C7AEC0B9FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4715B80-E79A-41DF-A4D8-6E091B22CCDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BCF02780-D300-43E8-921C-29E8CAC5991E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{BCF02780-D300-43E8-921C-29E8CAC5991E}"/>
   </bookViews>
   <sheets>
-    <sheet name="2_groups" sheetId="5" r:id="rId1"/>
-    <sheet name="3_groups" sheetId="1" r:id="rId2"/>
-    <sheet name="4_groups" sheetId="3" r:id="rId3"/>
-    <sheet name="6_groups" sheetId="4" r:id="rId4"/>
+    <sheet name="3_groups" sheetId="1" r:id="rId1"/>
+    <sheet name="4_groups" sheetId="3" r:id="rId2"/>
+    <sheet name="6_groups" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="50">
   <si>
     <t>Area1</t>
   </si>
@@ -187,21 +186,6 @@
   <si>
     <t>Area5_tot</t>
   </si>
-  <si>
-    <t>area1</t>
-  </si>
-  <si>
-    <t>area2</t>
-  </si>
-  <si>
-    <t>area3</t>
-  </si>
-  <si>
-    <t>Area_J</t>
-  </si>
-  <si>
-    <t>Area4+5</t>
-  </si>
 </sst>
 </file>
 
@@ -321,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -364,9 +348,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -680,1513 +661,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E362FAB3-749B-42AE-A5DF-A65E9F55F37B}">
-  <dimension ref="A1:AB50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA52" sqref="AA52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="12" max="12" width="5.88671875" customWidth="1"/>
-    <col min="16" max="16" width="5.77734375" customWidth="1"/>
-    <col min="18" max="18" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" customWidth="1"/>
-    <col min="20" max="20" width="6.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>253</v>
-      </c>
-      <c r="D3">
-        <f>C3/$C$5*100</f>
-        <v>53.944562899786789</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>234</v>
-      </c>
-      <c r="H3">
-        <f>G3/$G$5*100</f>
-        <v>78.523489932885909</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>430</v>
-      </c>
-      <c r="L3">
-        <f>K3/$K$5*100</f>
-        <v>68.253968253968253</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3">
-        <v>100</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>37</v>
-      </c>
-      <c r="T3">
-        <f>S3/$S$5*100</f>
-        <v>64.912280701754383</v>
-      </c>
-      <c r="V3" s="7">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <f>C3+G3+K3+O3+S3</f>
-        <v>957</v>
-      </c>
-      <c r="X3">
-        <f>W3/$W$5*100</f>
-        <v>65.682910089224436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>216</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D5" si="0">C4/$C$5*100</f>
-        <v>46.055437100213219</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>64</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H5" si="1">G4/$G$5*100</f>
-        <v>21.476510067114095</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>200</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L5" si="2">K4/$K$5*100</f>
-        <v>31.746031746031743</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>20</v>
-      </c>
-      <c r="T4">
-        <f t="shared" ref="T4:T5" si="3">S4/$S$5*100</f>
-        <v>35.087719298245609</v>
-      </c>
-      <c r="V4" s="7">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <f t="shared" ref="W4:W5" si="4">C4+G4+K4+O4+S4</f>
-        <v>500</v>
-      </c>
-      <c r="X4">
-        <f t="shared" ref="X4:X5" si="5">W4/$W$5*100</f>
-        <v>34.317089910775564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C5" s="1">
-        <f>SUM(C3:C4)</f>
-        <v>469</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G5" s="1">
-        <f>SUM(G3:G4)</f>
-        <v>298</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="K5" s="1">
-        <f>SUM(K3:K4)</f>
-        <v>630</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5">
-        <v>100</v>
-      </c>
-      <c r="S5" s="1">
-        <f>SUM(S3:S4)</f>
-        <v>57</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="4"/>
-        <v>1457</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="X9" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <f>G10/$G$12*100</f>
-        <v>71.428571428571431</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>406</v>
-      </c>
-      <c r="L10">
-        <f>K10/$K$12*100</f>
-        <v>56.783216783216787</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>178</v>
-      </c>
-      <c r="P10">
-        <f>O10/$O$12*100</f>
-        <v>56.507936507936506</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <f>C10+G10+K10+O10</f>
-        <v>590</v>
-      </c>
-      <c r="X10">
-        <f>W10/$W$12*100</f>
-        <v>56.840077071290942</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ref="H11:H12" si="6">G11/$G$12*100</f>
-        <v>28.571428571428569</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>309</v>
-      </c>
-      <c r="L11">
-        <f t="shared" ref="L11:L12" si="7">K11/$K$12*100</f>
-        <v>43.216783216783213</v>
-      </c>
-      <c r="N11" s="4">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>137</v>
-      </c>
-      <c r="P11">
-        <f t="shared" ref="P11:P12" si="8">O11/$O$12*100</f>
-        <v>43.492063492063494</v>
-      </c>
-      <c r="V11" s="7">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <f t="shared" ref="W11:W12" si="9">C11+G11+K11+O11</f>
-        <v>448</v>
-      </c>
-      <c r="X11">
-        <f t="shared" ref="X11:X12" si="10">W11/$W$12*100</f>
-        <v>43.159922928709058</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="K12" s="1">
-        <f>SUM(K10:K11)</f>
-        <v>715</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="O12" s="1">
-        <f>SUM(O10:O11)</f>
-        <v>315</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="9"/>
-        <v>1038</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W16" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>100</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>57</v>
-      </c>
-      <c r="H17">
-        <f>G17/$G$19*100</f>
-        <v>57.575757575757578</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>513</v>
-      </c>
-      <c r="L17">
-        <f>K17/$K$19*100</f>
-        <v>51.197604790419163</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>6</v>
-      </c>
-      <c r="P17">
-        <f>O17/$O$19*100</f>
-        <v>85.714285714285708</v>
-      </c>
-      <c r="V17" s="7">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <f>C17+G17+K17+O17</f>
-        <v>577</v>
-      </c>
-      <c r="X17">
-        <f>W17/$W$19*100</f>
-        <v>52.028854824165919</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>42</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ref="H18:H19" si="11">G18/$G$19*100</f>
-        <v>42.424242424242422</v>
-      </c>
-      <c r="J18" s="4">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>489</v>
-      </c>
-      <c r="L18">
-        <f t="shared" ref="L18:L19" si="12">K18/$K$19*100</f>
-        <v>48.802395209580837</v>
-      </c>
-      <c r="N18" s="4">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <f t="shared" ref="P18:P19" si="13">O18/$O$19*100</f>
-        <v>14.285714285714285</v>
-      </c>
-      <c r="V18" s="7">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <f t="shared" ref="W18:W19" si="14">C18+G18+K18+O18</f>
-        <v>532</v>
-      </c>
-      <c r="X18">
-        <f t="shared" ref="X18:X19" si="15">W18/$W$19*100</f>
-        <v>47.971145175834081</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>100</v>
-      </c>
-      <c r="G19" s="1">
-        <f>SUM(G17:G18)</f>
-        <v>99</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-      <c r="K19" s="1">
-        <f>SUM(K17:K18)</f>
-        <v>1002</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="12"/>
-        <v>100</v>
-      </c>
-      <c r="O19" s="1">
-        <f>SUM(O17:O18)</f>
-        <v>7</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="14"/>
-        <v>1109</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="15"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W24" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="X24" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B25" s="7">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>214</v>
-      </c>
-      <c r="H25">
-        <f>G25/$G$27*100</f>
-        <v>46.929824561403507</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>33.33</v>
-      </c>
-      <c r="N25" s="4">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>8</v>
-      </c>
-      <c r="P25">
-        <f>O25/$O$27*100</f>
-        <v>53.333333333333336</v>
-      </c>
-      <c r="V25" s="7">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <f>C25+G25+K25+O25</f>
-        <v>223</v>
-      </c>
-      <c r="X25">
-        <f>W25/$W$27*100</f>
-        <v>46.94736842105263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>100</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>242</v>
-      </c>
-      <c r="H26">
-        <f t="shared" ref="H26:H27" si="16">G26/$G$27*100</f>
-        <v>53.070175438596493</v>
-      </c>
-      <c r="J26" s="4">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>66.67</v>
-      </c>
-      <c r="N26" s="4">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>7</v>
-      </c>
-      <c r="P26">
-        <f t="shared" ref="P26:P27" si="17">O26/$O$27*100</f>
-        <v>46.666666666666664</v>
-      </c>
-      <c r="V26" s="7">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <f t="shared" ref="W26:W27" si="18">C26+G26+K26+O26</f>
-        <v>252</v>
-      </c>
-      <c r="X26">
-        <f t="shared" ref="X26:X27" si="19">W26/$W$27*100</f>
-        <v>53.05263157894737</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>100</v>
-      </c>
-      <c r="G27" s="1">
-        <f>SUM(G25:G26)</f>
-        <v>456</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="16"/>
-        <v>100</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>100</v>
-      </c>
-      <c r="O27" s="1">
-        <f>SUM(O25:O26)</f>
-        <v>15</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="17"/>
-        <v>100</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="18"/>
-        <v>475</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="19"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="W32" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="X32" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>97</v>
-      </c>
-      <c r="D33">
-        <f>C33/$C$35*100</f>
-        <v>59.146341463414629</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>11</v>
-      </c>
-      <c r="H33">
-        <f>G33/$G$35*100</f>
-        <v>84.615384615384613</v>
-      </c>
-      <c r="J33" s="4">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>50</v>
-      </c>
-      <c r="V33" s="7">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <f>C33+G33+K33</f>
-        <v>109</v>
-      </c>
-      <c r="X33">
-        <f>W33/$W$35*100</f>
-        <v>60.893854748603346</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>67</v>
-      </c>
-      <c r="D34">
-        <f t="shared" ref="D34:D35" si="20">C34/$C$35*100</f>
-        <v>40.853658536585364</v>
-      </c>
-      <c r="F34" s="4">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
-        <f t="shared" ref="H34:H35" si="21">G34/$G$35*100</f>
-        <v>15.384615384615385</v>
-      </c>
-      <c r="J34" s="4">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>50</v>
-      </c>
-      <c r="V34" s="7">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <f t="shared" ref="W34:W35" si="22">C34+G34+K34</f>
-        <v>70</v>
-      </c>
-      <c r="X34">
-        <f t="shared" ref="X34:X35" si="23">W34/$W$35*100</f>
-        <v>39.106145251396647</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C35" s="1">
-        <f>SUM(C33:C34)</f>
-        <v>164</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="20"/>
-        <v>100</v>
-      </c>
-      <c r="G35" s="1">
-        <f>SUM(G33:G34)</f>
-        <v>13</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>100</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="22"/>
-        <v>179</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="23"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O40" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="P40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S40" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="T40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="V40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W40" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="X40" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B41" s="7">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <f>C3+C10+C17</f>
-        <v>255</v>
-      </c>
-      <c r="D41">
-        <f>C41/$C$43*100</f>
-        <v>54.140127388535028</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>234</v>
-      </c>
-      <c r="H41">
-        <f>G41/$G$5*100</f>
-        <v>78.523489932885909</v>
-      </c>
-      <c r="J41" s="7">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <f>K3+G10+G17+C25</f>
-        <v>492</v>
-      </c>
-      <c r="L41">
-        <f>K41/$K$43*100</f>
-        <v>66.757123473541384</v>
-      </c>
-      <c r="N41" s="7">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <f>O3+K10+K17+G25+C33</f>
-        <v>1233</v>
-      </c>
-      <c r="P41">
-        <f>O41/$O$43*100</f>
-        <v>52.692307692307693</v>
-      </c>
-      <c r="R41" s="7">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <f>O10+O17+K25+G33</f>
-        <v>196</v>
-      </c>
-      <c r="T41">
-        <f>S41/$S$43*100</f>
-        <v>57.988165680473372</v>
-      </c>
-      <c r="V41" s="7">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <f>S3+O25+K33</f>
-        <v>46</v>
-      </c>
-      <c r="X41">
-        <f>W41/$W$43*100</f>
-        <v>62.162162162162161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B42" s="7">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ref="C42:C43" si="24">C4+C11+C18</f>
-        <v>216</v>
-      </c>
-      <c r="D42">
-        <f t="shared" ref="D42:D43" si="25">C42/$C$43*100</f>
-        <v>45.859872611464972</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>64</v>
-      </c>
-      <c r="H42">
-        <f t="shared" ref="H42:H43" si="26">G42/$G$5*100</f>
-        <v>21.476510067114095</v>
-      </c>
-      <c r="J42" s="7">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <f t="shared" ref="K42:K43" si="27">K4+G11+G18+C26</f>
-        <v>245</v>
-      </c>
-      <c r="L42">
-        <f t="shared" ref="L42:L43" si="28">K42/$K$43*100</f>
-        <v>33.242876526458616</v>
-      </c>
-      <c r="N42" s="7">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <f t="shared" ref="O42:O43" si="29">O4+K11+K18+G26+C34</f>
-        <v>1107</v>
-      </c>
-      <c r="P42">
-        <f t="shared" ref="P42:P43" si="30">O42/$O$43*100</f>
-        <v>47.307692307692307</v>
-      </c>
-      <c r="R42" s="7">
-        <v>1</v>
-      </c>
-      <c r="S42">
-        <f t="shared" ref="S42:S43" si="31">O11+O18+K26+G34</f>
-        <v>142</v>
-      </c>
-      <c r="T42">
-        <f t="shared" ref="T42:T43" si="32">S42/$S$43*100</f>
-        <v>42.011834319526628</v>
-      </c>
-      <c r="V42" s="7">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <f>S4+O26+K34</f>
-        <v>28</v>
-      </c>
-      <c r="X42">
-        <f t="shared" ref="X42:X43" si="33">W42/$W$43*100</f>
-        <v>37.837837837837839</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C43">
-        <f t="shared" si="24"/>
-        <v>471</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="25"/>
-        <v>100</v>
-      </c>
-      <c r="G43" s="1">
-        <f>SUM(G41:G42)</f>
-        <v>298</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="26"/>
-        <v>100</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="27"/>
-        <v>737</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="28"/>
-        <v>100</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="29"/>
-        <v>2340</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="30"/>
-        <v>100</v>
-      </c>
-      <c r="S43">
-        <f t="shared" si="31"/>
-        <v>338</v>
-      </c>
-      <c r="T43">
-        <f t="shared" si="32"/>
-        <v>100</v>
-      </c>
-      <c r="W43">
-        <f>S5+O27+K35</f>
-        <v>74</v>
-      </c>
-      <c r="X43">
-        <f t="shared" si="33"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B47" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="P47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S47" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="T47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="W47" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="X47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z47" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA47" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB47" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B48" s="7">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <f>G48+K48+O48+S48+W48</f>
-        <v>2456</v>
-      </c>
-      <c r="D48">
-        <f>C48/$C$50*100</f>
-        <v>57.67966181305777</v>
-      </c>
-      <c r="F48" s="7">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>957</v>
-      </c>
-      <c r="H48">
-        <v>65.682910089224436</v>
-      </c>
-      <c r="J48" s="7">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>590</v>
-      </c>
-      <c r="L48">
-        <v>56.840077071290942</v>
-      </c>
-      <c r="N48" s="7">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>577</v>
-      </c>
-      <c r="P48">
-        <v>52.028854824165919</v>
-      </c>
-      <c r="R48" s="7">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>223</v>
-      </c>
-      <c r="T48">
-        <v>46.94736842105263</v>
-      </c>
-      <c r="V48" s="7">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>109</v>
-      </c>
-      <c r="X48">
-        <v>60.893854748603346</v>
-      </c>
-      <c r="Z48" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <f>S48+W48</f>
-        <v>332</v>
-      </c>
-      <c r="AB48">
-        <f>AA48/$AA$50*100</f>
-        <v>50.764525993883794</v>
-      </c>
-    </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B49" s="7">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <f t="shared" ref="C49:C50" si="34">G49+K49+O49+S49+W49</f>
-        <v>1802</v>
-      </c>
-      <c r="D49">
-        <f t="shared" ref="D49:D50" si="35">C49/$C$50*100</f>
-        <v>42.320338186942223</v>
-      </c>
-      <c r="F49" s="7">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>500</v>
-      </c>
-      <c r="H49">
-        <v>34.317089910775564</v>
-      </c>
-      <c r="J49" s="7">
-        <v>1</v>
-      </c>
-      <c r="K49">
-        <v>448</v>
-      </c>
-      <c r="L49">
-        <v>43.159922928709058</v>
-      </c>
-      <c r="N49" s="7">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>532</v>
-      </c>
-      <c r="P49">
-        <v>47.971145175834081</v>
-      </c>
-      <c r="R49" s="7">
-        <v>1</v>
-      </c>
-      <c r="S49">
-        <v>252</v>
-      </c>
-      <c r="T49">
-        <v>53.05263157894737</v>
-      </c>
-      <c r="V49" s="7">
-        <v>1</v>
-      </c>
-      <c r="W49">
-        <v>70</v>
-      </c>
-      <c r="X49">
-        <v>39.106145251396647</v>
-      </c>
-      <c r="Z49" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA49">
-        <f t="shared" ref="AA49:AA50" si="36">S49+W49</f>
-        <v>322</v>
-      </c>
-      <c r="AB49">
-        <f t="shared" ref="AB49:AB50" si="37">AA49/$AA$50*100</f>
-        <v>49.235474006116206</v>
-      </c>
-    </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="C50">
-        <f t="shared" si="34"/>
-        <v>4258</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="35"/>
-        <v>100</v>
-      </c>
-      <c r="G50">
-        <v>1457</v>
-      </c>
-      <c r="H50">
-        <v>100</v>
-      </c>
-      <c r="K50">
-        <v>1038</v>
-      </c>
-      <c r="L50">
-        <v>100</v>
-      </c>
-      <c r="O50">
-        <v>1109</v>
-      </c>
-      <c r="P50">
-        <v>100</v>
-      </c>
-      <c r="S50">
-        <v>475</v>
-      </c>
-      <c r="T50">
-        <v>100</v>
-      </c>
-      <c r="W50">
-        <v>179</v>
-      </c>
-      <c r="X50">
-        <v>100</v>
-      </c>
-      <c r="AA50">
-        <f t="shared" si="36"/>
-        <v>654</v>
-      </c>
-      <c r="AB50">
-        <f t="shared" si="37"/>
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5AACF4-39EA-4D0A-ACCC-8AAAEB1F46DD}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C56" activeCellId="36" sqref="C2 G2 K2 O2 S2 W2 S12 O12 K12 G12 C12 C21 G21 K21 O21 S21 S30 O30 K30 G30 C30 C39 G39 K39 O39 C48 G48 K48 O48 S48 W48 W56 S56 O56 K56 G56 C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3974,7 +2453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFBD1BB-8849-4487-8552-39BD208832CB}">
   <dimension ref="A1:X65"/>
   <sheetViews>
@@ -6213,11 +4692,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5BD43A-606A-44D1-B8DE-8471DD4CA647}">
   <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="V2" activeCellId="5" sqref="B2 F2 J2 N2 R2 V2"/>
     </sheetView>
   </sheetViews>
